--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F42A24-F194-416D-8861-6F05DB9B3CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7319C0D9-8178-49DA-A72D-CF73F343D965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1271,10 +1271,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="112"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -2011,10 +2011,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="117"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3593,7 +3593,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4040,6 +4040,12 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="116"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4108,6 +4114,12 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="116"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4176,6 +4188,9 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="116"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4244,6 +4259,9 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="116"/>
+                <c:pt idx="0">
+                  <c:v>1.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4312,6 +4330,9 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="116"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4380,6 +4401,12 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="116"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7867,7 +7894,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7926,31 +7953,31 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -7970,15 +7997,27 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="B4" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="C4" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="D4" s="15">
+        <v>2</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
       <c r="H4" s="1">
         <f t="shared" ref="H4:H9" si="0">SUM(B4:G4)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I4" s="24">
         <v>1</v>
@@ -7991,15 +8030,21 @@
       <c r="A5" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+      <c r="B5" s="15">
+        <v>1</v>
+      </c>
+      <c r="C5" s="15">
+        <v>1</v>
+      </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
+      <c r="G5" s="15">
+        <v>3</v>
+      </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5" s="24">
         <v>2</v>
@@ -8010,8 +8055,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H119)</f>
-        <v>0</v>
+        <f>AVERAGE(H4)</f>
+        <v>7</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
@@ -8132,7 +8177,7 @@
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <f>SUM(H4:H10)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7319C0D9-8178-49DA-A72D-CF73F343D965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA20A87-A9FD-43DC-BA74-6557A8C2EF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1027,16 +1027,16 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.5</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1274,10 +1274,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2014,10 +2014,10 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1.5</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4191,6 +4191,12 @@
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4262,6 +4268,12 @@
                 <c:pt idx="0">
                   <c:v>1.5</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4333,6 +4345,12 @@
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4406,6 +4424,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7894,7 +7915,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7961,11 +7982,11 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -7973,11 +7994,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8036,15 +8057,21 @@
       <c r="C5" s="15">
         <v>1</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0</v>
+      </c>
       <c r="G5" s="15">
         <v>3</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I5" s="24">
         <v>2</v>
@@ -8055,18 +8082,26 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4)</f>
+        <f>AVERAGE(H4:H5)</f>
         <v>7</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
+        <v>2</v>
+      </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6" s="24">
         <v>3</v>
@@ -8177,7 +8212,7 @@
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <f>SUM(H4:H10)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA20A87-A9FD-43DC-BA74-6557A8C2EF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A949B7-653D-4E96-9197-F53333C9839C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1027,7 +1027,7 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.5</c:v>
@@ -1036,7 +1036,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1277,7 +1277,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2017,7 +2017,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4195,7 +4195,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4426,7 +4426,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7915,7 +7915,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7982,7 +7982,7 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
@@ -7994,11 +7994,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>18</v>
+        <v>21.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8088,7 +8088,7 @@
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E6" s="15">
         <v>1</v>
@@ -8097,11 +8097,11 @@
         <v>0</v>
       </c>
       <c r="G6" s="15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="I6" s="24">
         <v>3</v>
@@ -8212,7 +8212,7 @@
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <f>SUM(H4:H10)</f>
-        <v>18</v>
+        <v>21.5</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2A949B7-653D-4E96-9197-F53333C9839C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F909047-2FD7-43B4-B17A-04B856430C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1024,19 +1024,19 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1280,7 +1280,7 @@
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2020,7 +2020,7 @@
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3.5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4046,6 +4046,9 @@
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4120,6 +4123,12 @@
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4197,6 +4206,9 @@
                 <c:pt idx="2">
                   <c:v>1.5</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4274,6 +4286,9 @@
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4351,6 +4366,9 @@
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4427,6 +4445,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7915,7 +7936,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7978,15 +7999,15 @@
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -7994,11 +8015,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>21.5</v>
+        <v>28</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8085,8 +8106,12 @@
         <f>AVERAGE(H4:H5)</f>
         <v>7</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="B6" s="15">
+        <v>0</v>
+      </c>
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
       <c r="D6" s="15">
         <v>1.5</v>
       </c>
@@ -8112,14 +8137,24 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="C7" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15">
+        <v>4</v>
+      </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="I7" s="24">
         <v>4</v>
@@ -8212,7 +8247,7 @@
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <f>SUM(H4:H10)</f>
-        <v>21.5</v>
+        <v>28</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F909047-2FD7-43B4-B17A-04B856430C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0174032-7234-495F-8362-F766B0F08C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1280,19 +1280,19 @@
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -2020,19 +2020,19 @@
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4049,6 +4049,21 @@
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4129,6 +4144,18 @@
                 <c:pt idx="3">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4209,6 +4236,18 @@
                 <c:pt idx="3">
                   <c:v>1.5</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4289,6 +4328,18 @@
                 <c:pt idx="3">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4369,6 +4420,18 @@
                 <c:pt idx="3">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4448,6 +4511,18 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7936,7 +8011,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7995,19 +8070,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8015,11 +8090,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>28</v>
+        <v>57.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8103,8 +8178,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H5)</f>
-        <v>7</v>
+        <f>AVERAGE(H4:H11)</f>
+        <v>7.1875</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -8136,7 +8211,9 @@
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B7" s="15"/>
+      <c r="B7" s="15">
+        <v>0.5</v>
+      </c>
       <c r="C7" s="15">
         <v>0.5</v>
       </c>
@@ -8154,7 +8231,7 @@
       </c>
       <c r="H7" s="1">
         <f t="shared" si="0"/>
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="I7" s="24">
         <v>4</v>
@@ -8167,15 +8244,27 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="B8" s="15">
+        <v>1</v>
+      </c>
+      <c r="C8" s="15">
+        <v>0</v>
+      </c>
+      <c r="D8" s="15">
+        <v>4</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15">
+        <v>0</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
       <c r="H8" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I8" s="24">
         <v>5</v>
@@ -8185,15 +8274,27 @@
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="B9" s="15">
+        <v>2</v>
+      </c>
+      <c r="C9" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="D9" s="15">
+        <v>2</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="15">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
       <c r="H9" s="1">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="I9" s="24">
         <v>6</v>
@@ -8206,15 +8307,27 @@
       <c r="A10" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="B10" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="C10" s="15">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15">
+        <v>3</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="F10" s="15">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
       <c r="H10" s="1">
         <f t="shared" ref="H10:H43" si="1">SUM(B10:G10)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I10" s="24">
         <v>7</v>
@@ -8227,15 +8340,27 @@
       <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
+      <c r="B11" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="16">
+        <v>3</v>
+      </c>
+      <c r="E11" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>2</v>
+      </c>
       <c r="H11" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I11" s="24">
         <v>8</v>
@@ -8247,7 +8372,7 @@
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="14">
         <f>SUM(H4:H10)</f>
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="B12" s="16"/>
       <c r="C12" s="17"/>
@@ -8389,7 +8514,7 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <f>SUM(H11:H17)</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0174032-7234-495F-8362-F766B0F08C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B85C343-ED8C-4649-A135-6C0047BC763C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>7</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>18</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1292,13 +1292,13 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2032,13 +2032,13 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4064,6 +4064,9 @@
                 <c:pt idx="7">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4156,6 +4159,12 @@
                 <c:pt idx="7">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4246,7 +4255,13 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3</c:v>
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4340,6 +4355,12 @@
                 <c:pt idx="7">
                   <c:v>2.5</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4432,6 +4453,12 @@
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4522,6 +4549,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -8011,7 +8044,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8070,19 +8103,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8090,11 +8123,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>57.5</v>
+        <v>73.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8178,8 +8211,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H11)</f>
-        <v>7.1875</v>
+        <f>AVERAGE(H4:H12)</f>
+        <v>7.4444444444444446</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -8347,7 +8380,7 @@
         <v>0.5</v>
       </c>
       <c r="D11" s="16">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E11" s="16">
         <v>2.5</v>
@@ -8360,7 +8393,7 @@
       </c>
       <c r="H11" s="1">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="I11" s="24">
         <v>8</v>
@@ -8374,15 +8407,27 @@
         <f>SUM(H4:H10)</f>
         <v>49</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
+      <c r="B12" s="16">
+        <v>1</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="17">
+        <v>2</v>
+      </c>
+      <c r="E12" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="17">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17">
+        <v>4</v>
+      </c>
       <c r="H12" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I12" s="24">
         <v>9</v>
@@ -8396,14 +8441,24 @@
         <v>45</v>
       </c>
       <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
+      <c r="C13" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="E13" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="17">
+        <v>0</v>
+      </c>
+      <c r="G13" s="17">
+        <v>2</v>
+      </c>
       <c r="H13" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="I13" s="24">
         <v>10</v>
@@ -8514,7 +8569,7 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <f>SUM(H11:H17)</f>
-        <v>8.5</v>
+        <v>24.5</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B85C343-ED8C-4649-A135-6C0047BC763C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2697594B-45EB-4A0F-A177-12B8B994E8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,16 +1021,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
@@ -1298,7 +1298,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -2038,7 +2038,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.5</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4067,6 +4067,9 @@
                 <c:pt idx="8">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4261,7 +4264,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.5</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4359,7 +4362,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.5</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8044,7 +8047,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8103,7 +8106,7 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
@@ -8111,11 +8114,11 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8127,7 +8130,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>73.5</v>
+        <v>76.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8440,15 +8443,17 @@
       <c r="A13" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="17">
+        <v>1</v>
+      </c>
       <c r="C13" s="17">
         <v>0.5</v>
       </c>
       <c r="D13" s="17">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E13" s="17">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F13" s="17">
         <v>0</v>
@@ -8458,7 +8463,7 @@
       </c>
       <c r="H13" s="1">
         <f t="shared" si="1"/>
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="I13" s="24">
         <v>10</v>
@@ -8569,7 +8574,7 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <f>SUM(H11:H17)</f>
-        <v>24.5</v>
+        <v>27.5</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2697594B-45EB-4A0F-A177-12B8B994E8DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74809D4-696E-4505-A914-1D8915D96604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1301,7 +1301,7 @@
                   <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -2041,7 +2041,7 @@
                   <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4070,6 +4070,9 @@
                 <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4168,6 +4171,9 @@
                 <c:pt idx="9">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4266,6 +4272,9 @@
                 <c:pt idx="9">
                   <c:v>4.5</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4364,6 +4373,9 @@
                 <c:pt idx="9">
                   <c:v>1.5</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4462,6 +4474,9 @@
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4559,6 +4574,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8047,7 +8065,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8106,7 +8124,7 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
@@ -8114,11 +8132,11 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8126,11 +8144,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>76.5</v>
+        <v>82</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8473,15 +8491,27 @@
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
+      <c r="B14" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="17">
+        <v>0</v>
+      </c>
+      <c r="G14" s="17">
+        <v>4</v>
+      </c>
       <c r="H14" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I14" s="24">
         <v>11</v>
@@ -8574,7 +8604,7 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <f>SUM(H11:H17)</f>
-        <v>27.5</v>
+        <v>33</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E74809D4-696E-4505-A914-1D8915D96604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783BBCAF-976E-47C5-91F6-D76803354441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>10.5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.5</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12.5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1301,7 +1301,7 @@
                   <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -2041,7 +2041,7 @@
                   <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10.5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>26.5</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12.5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4071,7 +4071,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4273,7 +4273,7 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4374,7 +4374,7 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4576,7 +4576,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8065,7 +8065,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8124,7 +8124,7 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
@@ -8132,11 +8132,11 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>26.5</v>
+        <v>27</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8144,11 +8144,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>82</v>
+        <v>84.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8492,26 +8492,26 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B14" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C14" s="17">
         <v>0</v>
       </c>
       <c r="D14" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E14" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F14" s="17">
         <v>0</v>
       </c>
       <c r="G14" s="17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="I14" s="24">
         <v>11</v>
@@ -8604,7 +8604,7 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <f>SUM(H11:H17)</f>
-        <v>33</v>
+        <v>35.5</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{783BBCAF-976E-47C5-91F6-D76803354441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2267E4BE-94D6-497B-87C8-3A07ADC06F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,13 +1021,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>13</c:v>
@@ -1301,10 +1301,10 @@
                   <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -2041,10 +2041,10 @@
                   <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4071,6 +4071,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4273,6 +4276,9 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4475,6 +4481,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8065,7 +8074,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8124,7 +8133,7 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
@@ -8132,7 +8141,7 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>27</v>
+        <v>28.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
@@ -8148,7 +8157,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>84.5</v>
+        <v>87.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8492,13 +8501,13 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B14" s="17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C14" s="17">
         <v>0</v>
       </c>
       <c r="D14" s="17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E14" s="17">
         <v>1</v>
@@ -8511,7 +8520,7 @@
       </c>
       <c r="H14" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I14" s="24">
         <v>11</v>
@@ -8524,15 +8533,21 @@
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="17">
+        <v>1</v>
+      </c>
       <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="D15" s="17">
+        <v>1</v>
+      </c>
       <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
+      <c r="F15" s="17">
+        <v>0</v>
+      </c>
       <c r="G15" s="17"/>
       <c r="H15" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" s="24">
         <v>12</v>
@@ -8604,7 +8619,7 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <f>SUM(H11:H17)</f>
-        <v>35.5</v>
+        <v>38.5</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2267E4BE-94D6-497B-87C8-3A07ADC06F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25378F66-A7CA-4290-916B-4CD8F7825CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1027,7 +1027,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.5</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>13</c:v>
@@ -1304,7 +1304,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -2044,7 +2044,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>28.5</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4279,7 +4279,7 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8074,7 +8074,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8141,7 +8141,7 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>28.5</v>
+        <v>30.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
@@ -8157,7 +8157,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>87.5</v>
+        <v>89.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8538,7 +8538,7 @@
       </c>
       <c r="C15" s="17"/>
       <c r="D15" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="17">
@@ -8547,7 +8547,7 @@
       <c r="G15" s="17"/>
       <c r="H15" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I15" s="24">
         <v>12</v>
@@ -8619,7 +8619,7 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <f>SUM(H11:H17)</f>
-        <v>38.5</v>
+        <v>40.5</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25378F66-A7CA-4290-916B-4CD8F7825CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032FADC0-17C1-4494-86BE-794A6D4696B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1024,19 +1024,19 @@
                   <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.5</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1304,7 +1304,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -2044,7 +2044,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30.5</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>25.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4177,6 +4177,9 @@
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4279,7 +4282,7 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4382,6 +4385,9 @@
                 <c:pt idx="10">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4586,6 +4592,9 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8074,7 +8083,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8137,15 +8146,15 @@
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>30.5</v>
+        <v>32</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8153,11 +8162,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>25</v>
+        <v>25.5</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>89.5</v>
+        <v>94</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8536,18 +8545,24 @@
       <c r="B15" s="17">
         <v>1</v>
       </c>
-      <c r="C15" s="17"/>
+      <c r="C15" s="17">
+        <v>1</v>
+      </c>
       <c r="D15" s="17">
-        <v>3</v>
-      </c>
-      <c r="E15" s="17"/>
+        <v>4.5</v>
+      </c>
+      <c r="E15" s="17">
+        <v>1.5</v>
+      </c>
       <c r="F15" s="17">
         <v>0</v>
       </c>
-      <c r="G15" s="17"/>
+      <c r="G15" s="17">
+        <v>0.5</v>
+      </c>
       <c r="H15" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>8.5</v>
       </c>
       <c r="I15" s="24">
         <v>12</v>
@@ -8619,7 +8634,7 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <f>SUM(H11:H17)</f>
-        <v>40.5</v>
+        <v>45</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{032FADC0-17C1-4494-86BE-794A6D4696B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A148B8D7-B62D-4821-A05E-50C94BFD9876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,13 +1021,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>12.5</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32</c:v>
+                  <c:v>32.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>14.5</c:v>
@@ -1304,7 +1304,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -2044,7 +2044,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12.5</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>32.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4074,7 +4074,7 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4282,7 +4282,7 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8083,7 +8083,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8142,7 +8142,7 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
@@ -8150,7 +8150,7 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>32</v>
+        <v>32.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
@@ -8166,7 +8166,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>94</v>
+        <v>96.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8543,13 +8543,13 @@
         <v>30</v>
       </c>
       <c r="B15" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" s="17">
         <v>1</v>
       </c>
       <c r="D15" s="17">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="E15" s="17">
         <v>1.5</v>
@@ -8562,7 +8562,7 @@
       </c>
       <c r="H15" s="1">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="I15" s="24">
         <v>12</v>
@@ -8634,7 +8634,7 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <f>SUM(H11:H17)</f>
-        <v>45</v>
+        <v>47.5</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A148B8D7-B62D-4821-A05E-50C94BFD9876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0963CA-2312-4914-83D0-AB510BB48545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>14.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>32.5</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>25.5</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1307,7 +1307,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -2047,7 +2047,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32.5</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25.5</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4076,6 +4076,9 @@
                 <c:pt idx="11">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4180,6 +4183,9 @@
                 <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4284,6 +4290,9 @@
                 <c:pt idx="11">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4388,6 +4397,9 @@
                 <c:pt idx="11">
                   <c:v>1.5</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4492,6 +4504,9 @@
                 <c:pt idx="11">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4595,6 +4610,9 @@
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8083,7 +8101,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8142,7 +8160,7 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
@@ -8150,11 +8168,11 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>32.5</v>
+        <v>33</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8162,11 +8180,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>25.5</v>
+        <v>26.5</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>96.5</v>
+        <v>99</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8572,15 +8590,27 @@
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+      <c r="B16" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0</v>
+      </c>
+      <c r="G16" s="17">
+        <v>1</v>
+      </c>
       <c r="H16" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="I16" s="24">
         <v>13</v>
@@ -8634,7 +8664,7 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <f>SUM(H11:H17)</f>
-        <v>47.5</v>
+        <v>50</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0963CA-2312-4914-83D0-AB510BB48545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5CEDB8-22EA-4E67-A40F-956E25D9E5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>26.5</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1307,10 +1307,10 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -2047,10 +2047,10 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>16.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>26.5</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4077,7 +4077,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.5</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4184,7 +4187,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4291,6 +4294,9 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -4398,6 +4404,9 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -4507,6 +4516,9 @@
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4612,7 +4624,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8160,19 +8172,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>33</v>
+        <v>34.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8180,11 +8192,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>26.5</v>
+        <v>27</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>99</v>
+        <v>110.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8268,8 +8280,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H12)</f>
-        <v>7.4444444444444446</v>
+        <f>AVERAGE(H4:H16)</f>
+        <v>8.0384615384615383</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -8591,26 +8603,26 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="B16" s="17">
+        <v>3</v>
+      </c>
+      <c r="C16" s="17">
         <v>0.5</v>
       </c>
-      <c r="C16" s="17">
-        <v>0</v>
-      </c>
       <c r="D16" s="17">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E16" s="17">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F16" s="17">
         <v>0</v>
       </c>
       <c r="G16" s="17">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="1"/>
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="I16" s="24">
         <v>13</v>
@@ -8623,15 +8635,23 @@
       <c r="A17" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="17"/>
+      <c r="B17" s="17">
+        <v>5</v>
+      </c>
       <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
+      <c r="D17" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="17">
+        <v>0</v>
+      </c>
       <c r="G17" s="17"/>
       <c r="H17" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I17" s="24">
         <v>14</v>
@@ -8664,7 +8684,7 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <f>SUM(H11:H17)</f>
-        <v>50</v>
+        <v>61.5</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5CEDB8-22EA-4E67-A40F-956E25D9E5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C48539-ADF7-430E-B437-FF3422E45B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1030,13 +1030,13 @@
                   <c:v>34.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.5</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,7 +1310,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -2050,7 +2050,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>0</c:v>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16.5</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4189,6 +4189,9 @@
                 <c:pt idx="12">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4407,7 +4410,7 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.5</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4625,6 +4628,9 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8113,7 +8119,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8184,7 +8190,7 @@
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8192,11 +8198,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>110.5</v>
+        <v>112.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8638,20 +8644,24 @@
       <c r="B17" s="17">
         <v>5</v>
       </c>
-      <c r="C17" s="17"/>
+      <c r="C17" s="17">
+        <v>0</v>
+      </c>
       <c r="D17" s="17">
         <v>0.5</v>
       </c>
       <c r="E17" s="17">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F17" s="17">
         <v>0</v>
       </c>
-      <c r="G17" s="17"/>
+      <c r="G17" s="17">
+        <v>1</v>
+      </c>
       <c r="H17" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I17" s="24">
         <v>14</v>
@@ -8684,7 +8694,7 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <f>SUM(H11:H17)</f>
-        <v>61.5</v>
+        <v>63.5</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C48539-ADF7-430E-B437-FF3422E45B70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825996ED-5261-46A9-A485-1BB5D90F9990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>22.5</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.5</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17.5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,10 +1310,10 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -2050,10 +2050,10 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>22.5</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>34.5</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>17.5</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4082,6 +4082,9 @@
                 <c:pt idx="13">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4192,6 +4195,9 @@
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4300,6 +4306,9 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -4412,6 +4421,9 @@
                 <c:pt idx="13">
                   <c:v>1.5</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4522,6 +4534,9 @@
                 <c:pt idx="13">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4631,6 +4646,9 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8119,7 +8137,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8178,19 +8196,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>22.5</v>
+        <v>24</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>34.5</v>
+        <v>36</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8198,11 +8216,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>112.5</v>
+        <v>118.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8648,7 +8666,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="17">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E17" s="17">
         <v>1.5</v>
@@ -8661,7 +8679,7 @@
       </c>
       <c r="H17" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I17" s="24">
         <v>14</v>
@@ -8674,15 +8692,27 @@
       <c r="A18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="B18" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="C18" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="E18" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0</v>
+      </c>
+      <c r="G18" s="15">
+        <v>2</v>
+      </c>
       <c r="H18" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I18" s="24">
         <v>15</v>
@@ -8694,7 +8724,7 @@
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <f>SUM(H11:H17)</f>
-        <v>63.5</v>
+        <v>64.5</v>
       </c>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>
@@ -8833,7 +8863,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <f>SUM(H18:H24)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825996ED-5261-46A9-A485-1BB5D90F9990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3251467A-FB93-49A4-B616-7B47878D46B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1027,16 +1027,16 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>38.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1313,7 +1313,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -2053,7 +2053,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>38.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4309,7 +4309,7 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4422,7 +4422,7 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.5</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4648,7 +4648,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8137,7 +8137,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8204,11 +8204,11 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>36</v>
+        <v>38.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8216,11 +8216,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>30</v>
+        <v>30.5</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>118.5</v>
+        <v>122.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8699,20 +8699,20 @@
         <v>0.5</v>
       </c>
       <c r="D18" s="15">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E18" s="15">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F18" s="15">
         <v>0</v>
       </c>
       <c r="G18" s="15">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H18" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I18" s="24">
         <v>15</v>
@@ -8863,7 +8863,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <f>SUM(H18:H24)</f>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3251467A-FB93-49A4-B616-7B47878D46B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A567DD90-C522-401F-8F6B-342F0DAC7B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1027,10 +1027,10 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38.5</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
@@ -1313,7 +1313,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -2053,7 +2053,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>9</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>38.5</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4309,7 +4309,7 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4422,7 +4422,7 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8137,7 +8137,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8204,11 +8204,11 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>38.5</v>
+        <v>39</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8220,7 +8220,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>122.5</v>
+        <v>124</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8699,10 +8699,10 @@
         <v>0.5</v>
       </c>
       <c r="D18" s="15">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E18" s="15">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F18" s="15">
         <v>0</v>
@@ -8712,7 +8712,7 @@
       </c>
       <c r="H18" s="1">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="I18" s="24">
         <v>15</v>
@@ -8863,7 +8863,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <f>SUM(H18:H24)</f>
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A567DD90-C522-401F-8F6B-342F0DAC7B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBFA6B4-96C4-4244-B8A3-45EEA9778911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,13 +1021,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>20</c:v>
@@ -1036,7 +1036,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30.5</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1316,7 +1316,7 @@
                   <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -2056,7 +2056,7 @@
                   <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30.5</c:v>
+                  <c:v>34.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4085,6 +4085,9 @@
                 <c:pt idx="14">
                   <c:v>1.5</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4198,6 +4201,9 @@
                 <c:pt idx="14">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4311,6 +4317,9 @@
                 <c:pt idx="14">
                   <c:v>3.5</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4537,6 +4546,9 @@
                 <c:pt idx="14">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4649,6 +4661,9 @@
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8137,7 +8152,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8196,15 +8211,15 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
@@ -8216,11 +8231,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>30.5</v>
+        <v>34.5</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8726,15 +8741,25 @@
         <f>SUM(H11:H17)</f>
         <v>64.5</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
+      <c r="B19" s="15">
+        <v>1</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1</v>
+      </c>
+      <c r="D19" s="15">
+        <v>1</v>
+      </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="15">
+        <v>4</v>
+      </c>
       <c r="H19" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I19" s="24">
         <v>16</v>
@@ -8863,7 +8888,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <f>SUM(H18:H24)</f>
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEBFA6B4-96C4-4244-B8A3-45EEA9778911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6F3AF1-54F2-4485-AF0C-ADA372E2FDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,7 +1021,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11</c:v>
@@ -1316,7 +1316,7 @@
                   <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -2056,7 +2056,7 @@
                   <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>25</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4086,7 +4086,7 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8152,7 +8152,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
@@ -8235,7 +8235,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8742,7 +8742,7 @@
         <v>64.5</v>
       </c>
       <c r="B19" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="15">
         <v>1</v>
@@ -8759,7 +8759,7 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I19" s="24">
         <v>16</v>
@@ -8888,7 +8888,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <f>SUM(H18:H24)</f>
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6F3AF1-54F2-4485-AF0C-ADA372E2FDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE91C839-5E0C-4DFE-A5AF-305B008AFA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1027,10 +1027,10 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
@@ -1316,7 +1316,7 @@
                   <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -2056,7 +2056,7 @@
                   <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>40</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4318,7 +4318,7 @@
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4431,6 +4431,9 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -8152,7 +8155,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8219,11 +8222,11 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>20</v>
+        <v>22.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8235,7 +8238,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>132</v>
+        <v>135.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8748,9 +8751,11 @@
         <v>1</v>
       </c>
       <c r="D19" s="15">
-        <v>1</v>
-      </c>
-      <c r="E19" s="15"/>
+        <v>2</v>
+      </c>
+      <c r="E19" s="15">
+        <v>2.5</v>
+      </c>
       <c r="F19" s="15">
         <v>0</v>
       </c>
@@ -8759,7 +8764,7 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="I19" s="24">
         <v>16</v>
@@ -8888,7 +8893,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <f>SUM(H18:H24)</f>
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE91C839-5E0C-4DFE-A5AF-305B008AFA97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57811434-C14A-485C-8EEF-ACCB4607AEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>43.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.5</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.5</c:v>
+                  <c:v>36.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1316,10 +1316,10 @@
                   <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.5</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -2056,10 +2056,10 @@
                   <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.5</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>41</c:v>
+                  <c:v>43.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>22.5</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>34.5</c:v>
+                  <c:v>36.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4086,7 +4086,7 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4204,6 +4204,9 @@
                 <c:pt idx="15">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4320,6 +4323,9 @@
                 <c:pt idx="15">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4436,6 +4442,9 @@
                 <c:pt idx="15">
                   <c:v>2.5</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4552,6 +4561,9 @@
                 <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4667,6 +4679,9 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8155,7 +8170,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8214,7 +8229,7 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
@@ -8222,11 +8237,11 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>41</v>
+        <v>43.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>22.5</v>
+        <v>26</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8234,11 +8249,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>34.5</v>
+        <v>36.5</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>135.5</v>
+        <v>144.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8322,8 +8337,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H16)</f>
-        <v>8.0384615384615383</v>
+        <f>AVERAGE(H4:H19)</f>
+        <v>8.53125</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -8745,7 +8760,7 @@
         <v>64.5</v>
       </c>
       <c r="B19" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="15">
         <v>1</v>
@@ -8764,7 +8779,7 @@
       </c>
       <c r="H19" s="1">
         <f t="shared" si="1"/>
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="I19" s="24">
         <v>16</v>
@@ -8775,14 +8790,24 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="C20" s="15">
+        <v>0</v>
+      </c>
+      <c r="D20" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="E20" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="F20" s="15">
+        <v>0</v>
+      </c>
+      <c r="G20" s="15">
+        <v>2</v>
+      </c>
       <c r="H20" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I20" s="24">
         <v>17</v>
@@ -8893,7 +8918,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <f>SUM(H18:H24)</f>
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57811434-C14A-485C-8EEF-ACCB4607AEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47962308-E177-4D1D-974F-B5A47EDD2163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47962308-E177-4D1D-974F-B5A47EDD2163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCF5266-2EA6-4008-B2C5-6739AA86A76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43.5</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36.5</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1319,10 +1319,10 @@
                   <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -2059,10 +2059,10 @@
                   <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>43.5</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>36.5</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4088,6 +4088,12 @@
                 <c:pt idx="15">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4324,7 +4330,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.5</c:v>
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4445,6 +4454,9 @@
                 <c:pt idx="16">
                   <c:v>3.5</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4564,6 +4576,9 @@
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4682,6 +4697,9 @@
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8170,7 +8188,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8229,7 +8247,7 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
@@ -8237,11 +8255,11 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>43.5</v>
+        <v>49</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>26</v>
+        <v>26.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8249,11 +8267,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>36.5</v>
+        <v>40.5</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>144.5</v>
+        <v>155.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8337,8 +8355,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H19)</f>
-        <v>8.53125</v>
+        <f>AVERAGE(H4:H20)</f>
+        <v>8.764705882352942</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -8789,12 +8807,14 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
+      <c r="B20" s="15">
+        <v>0.5</v>
+      </c>
       <c r="C20" s="15">
         <v>0</v>
       </c>
       <c r="D20" s="15">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="E20" s="15">
         <v>3.5</v>
@@ -8807,7 +8827,7 @@
       </c>
       <c r="H20" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>12.5</v>
       </c>
       <c r="I20" s="24">
         <v>17</v>
@@ -8817,15 +8837,25 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B21" s="15"/>
+      <c r="B21" s="15">
+        <v>0.5</v>
+      </c>
       <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+      <c r="D21" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="E21" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="15">
+        <v>0</v>
+      </c>
+      <c r="G21" s="15">
+        <v>4</v>
+      </c>
       <c r="H21" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="I21" s="24">
         <v>18</v>
@@ -8918,7 +8948,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <f>SUM(H18:H24)</f>
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCF5266-2EA6-4008-B2C5-6739AA86A76F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57AE0D5-FF5E-48D4-AD83-7CDE89E0AD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1024,10 +1024,10 @@
                   <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>49</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>26.5</c:v>
@@ -1322,7 +1322,7 @@
                   <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -2062,7 +2062,7 @@
                   <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>49</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4213,6 +4213,9 @@
                 <c:pt idx="16">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4333,7 +4336,7 @@
                   <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.5</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8188,7 +8191,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8251,11 +8254,11 @@
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
@@ -8271,7 +8274,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>155.5</v>
+        <v>159</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8840,9 +8843,11 @@
       <c r="B21" s="15">
         <v>0.5</v>
       </c>
-      <c r="C21" s="15"/>
+      <c r="C21" s="15">
+        <v>0.5</v>
+      </c>
       <c r="D21" s="15">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="E21" s="15">
         <v>0.5</v>
@@ -8855,7 +8860,7 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" si="1"/>
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="I21" s="24">
         <v>18</v>
@@ -8948,7 +8953,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <f>SUM(H18:H24)</f>
-        <v>42</v>
+        <v>45.5</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57AE0D5-FF5E-48D4-AD83-7CDE89E0AD33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A0C8AF-BE02-4660-9C8D-9BF148639C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1027,7 +1027,7 @@
                   <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52</c:v>
+                  <c:v>53.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>26.5</c:v>
@@ -1322,7 +1322,7 @@
                   <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -2062,7 +2062,7 @@
                   <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0</c:v>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>53.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4336,7 +4336,7 @@
                   <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8191,7 +8191,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8258,7 +8258,7 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>52</v>
+        <v>53.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
@@ -8274,7 +8274,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>159</v>
+        <v>160.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8847,7 +8847,7 @@
         <v>0.5</v>
       </c>
       <c r="D21" s="15">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="E21" s="15">
         <v>0.5</v>
@@ -8860,7 +8860,7 @@
       </c>
       <c r="H21" s="1">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="I21" s="24">
         <v>18</v>
@@ -8953,7 +8953,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <f>SUM(H18:H24)</f>
-        <v>45.5</v>
+        <v>47</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7A0C8AF-BE02-4660-9C8D-9BF148639C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C9D52C-20D3-4D62-8B96-4D88B35D29DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.5</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>53.5</c:v>
+                  <c:v>60.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.5</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.5</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1325,10 +1325,10 @@
                   <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -2065,10 +2065,10 @@
                   <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>11.5</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>53.5</c:v>
+                  <c:v>60.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>26.5</c:v>
+                  <c:v>30.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>40.5</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4094,6 +4094,12 @@
                 <c:pt idx="17">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4216,6 +4222,12 @@
                 <c:pt idx="17">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4338,6 +4350,12 @@
                 <c:pt idx="17">
                   <c:v>6</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4460,6 +4478,12 @@
                 <c:pt idx="17">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4582,6 +4606,12 @@
                 <c:pt idx="17">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4703,6 +4733,12 @@
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8191,7 +8227,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8250,19 +8286,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>53.5</v>
+        <v>60.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>26.5</v>
+        <v>30.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8270,11 +8306,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>40.5</v>
+        <v>43</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>160.5</v>
+        <v>179</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8320,7 +8356,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="29">
-        <v>44213</v>
+        <v>44578</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
@@ -8353,13 +8389,13 @@
         <v>2</v>
       </c>
       <c r="J5" s="29">
-        <v>44214</v>
+        <v>44579</v>
       </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H20)</f>
-        <v>8.764705882352942</v>
+        <f>AVERAGE(H4:H23)</f>
+        <v>8.9499999999999993</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -8387,7 +8423,7 @@
         <v>3</v>
       </c>
       <c r="J6" s="29">
-        <v>44215</v>
+        <v>44580</v>
       </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
@@ -8417,7 +8453,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="29">
-        <v>44216</v>
+        <v>44581</v>
       </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
@@ -8450,7 +8486,7 @@
         <v>5</v>
       </c>
       <c r="J8" s="29">
-        <v>44217</v>
+        <v>44582</v>
       </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
@@ -8480,7 +8516,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="29">
-        <v>44218</v>
+        <v>44583</v>
       </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
@@ -8513,7 +8549,7 @@
         <v>7</v>
       </c>
       <c r="J10" s="29">
-        <v>44219</v>
+        <v>44584</v>
       </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
@@ -8546,7 +8582,7 @@
         <v>8</v>
       </c>
       <c r="J11" s="29">
-        <v>44220</v>
+        <v>44585</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">
@@ -8580,7 +8616,7 @@
         <v>9</v>
       </c>
       <c r="J12" s="29">
-        <v>44221</v>
+        <v>44586</v>
       </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
@@ -8613,7 +8649,7 @@
         <v>10</v>
       </c>
       <c r="J13" s="29">
-        <v>44222</v>
+        <v>44587</v>
       </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
@@ -8643,7 +8679,7 @@
         <v>11</v>
       </c>
       <c r="J14" s="29">
-        <v>44223</v>
+        <v>44588</v>
       </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
@@ -8676,7 +8712,7 @@
         <v>12</v>
       </c>
       <c r="J15" s="29">
-        <v>44224</v>
+        <v>44589</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
@@ -8706,7 +8742,7 @@
         <v>13</v>
       </c>
       <c r="J16" s="29">
-        <v>44225</v>
+        <v>44590</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -8739,7 +8775,7 @@
         <v>14</v>
       </c>
       <c r="J17" s="29">
-        <v>44226</v>
+        <v>44591</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -8772,7 +8808,7 @@
         <v>15</v>
       </c>
       <c r="J18" s="29">
-        <v>44227</v>
+        <v>44592</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -8806,7 +8842,7 @@
         <v>16</v>
       </c>
       <c r="J19" s="29">
-        <v>44228</v>
+        <v>44593</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -8836,7 +8872,7 @@
         <v>17</v>
       </c>
       <c r="J20" s="29">
-        <v>44229</v>
+        <v>44594</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -8866,46 +8902,70 @@
         <v>18</v>
       </c>
       <c r="J21" s="29">
-        <v>44230</v>
+        <v>44595</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="B22" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="C22" s="15">
+        <v>1</v>
+      </c>
+      <c r="D22" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="E22" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="F22" s="15">
+        <v>0</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0</v>
+      </c>
       <c r="H22" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I22" s="24">
         <v>19</v>
       </c>
       <c r="J22" s="29">
-        <v>44231</v>
+        <v>44596</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="B23" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="C23" s="15">
+        <v>0</v>
+      </c>
+      <c r="D23" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="E23" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="F23" s="15">
+        <v>0</v>
+      </c>
+      <c r="G23" s="15">
+        <v>2.5</v>
+      </c>
       <c r="H23" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I23" s="24">
         <v>20</v>
       </c>
       <c r="J23" s="29">
-        <v>44232</v>
+        <v>44597</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -8926,7 +8986,7 @@
         <v>21</v>
       </c>
       <c r="J24" s="29">
-        <v>44233</v>
+        <v>44598</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -8947,13 +9007,13 @@
         <v>22</v>
       </c>
       <c r="J25" s="29">
-        <v>44234</v>
+        <v>44599</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <f>SUM(H18:H24)</f>
-        <v>47</v>
+        <v>65.5</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -8969,7 +9029,7 @@
         <v>23</v>
       </c>
       <c r="J26" s="29">
-        <v>44235</v>
+        <v>44600</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -8987,7 +9047,7 @@
         <v>24</v>
       </c>
       <c r="J27" s="29">
-        <v>44236</v>
+        <v>44601</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -9005,7 +9065,7 @@
         <v>25</v>
       </c>
       <c r="J28" s="29">
-        <v>44237</v>
+        <v>44602</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -9026,7 +9086,7 @@
         <v>26</v>
       </c>
       <c r="J29" s="29">
-        <v>44238</v>
+        <v>44603</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -9044,7 +9104,7 @@
         <v>27</v>
       </c>
       <c r="J30" s="29">
-        <v>44239</v>
+        <v>44604</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -9065,7 +9125,7 @@
         <v>28</v>
       </c>
       <c r="J31" s="29">
-        <v>44240</v>
+        <v>44605</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -9086,7 +9146,7 @@
         <v>29</v>
       </c>
       <c r="J32" s="29">
-        <v>44241</v>
+        <v>44606</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -9108,7 +9168,7 @@
         <v>30</v>
       </c>
       <c r="J33" s="29">
-        <v>44242</v>
+        <v>44607</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -9126,7 +9186,7 @@
         <v>31</v>
       </c>
       <c r="J34" s="29">
-        <v>44243</v>
+        <v>44608</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -9144,7 +9204,7 @@
         <v>32</v>
       </c>
       <c r="J35" s="29">
-        <v>44244</v>
+        <v>44609</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -9165,7 +9225,7 @@
         <v>33</v>
       </c>
       <c r="J36" s="29">
-        <v>44245</v>
+        <v>44610</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -9183,7 +9243,7 @@
         <v>34</v>
       </c>
       <c r="J37" s="29">
-        <v>44246</v>
+        <v>44611</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -9204,7 +9264,7 @@
         <v>35</v>
       </c>
       <c r="J38" s="29">
-        <v>44247</v>
+        <v>44612</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -9225,7 +9285,7 @@
         <v>36</v>
       </c>
       <c r="J39" s="29">
-        <v>44248</v>
+        <v>44613</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -9247,7 +9307,7 @@
         <v>37</v>
       </c>
       <c r="J40" s="29">
-        <v>44249</v>
+        <v>44614</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -9265,7 +9325,7 @@
         <v>38</v>
       </c>
       <c r="J41" s="29">
-        <v>44250</v>
+        <v>44615</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -9283,7 +9343,7 @@
         <v>39</v>
       </c>
       <c r="J42" s="29">
-        <v>44251</v>
+        <v>44616</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -9304,7 +9364,7 @@
         <v>40</v>
       </c>
       <c r="J43" s="29">
-        <v>44252</v>
+        <v>44617</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -9322,7 +9382,7 @@
         <v>41</v>
       </c>
       <c r="J44" s="29">
-        <v>44253</v>
+        <v>44618</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -9343,7 +9403,7 @@
         <v>42</v>
       </c>
       <c r="J45" s="29">
-        <v>44254</v>
+        <v>44619</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -9364,7 +9424,7 @@
         <v>43</v>
       </c>
       <c r="J46" s="29">
-        <v>44255</v>
+        <v>44620</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -9386,7 +9446,7 @@
         <v>44</v>
       </c>
       <c r="J47" s="29">
-        <v>44256</v>
+        <v>44621</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -9404,7 +9464,7 @@
         <v>45</v>
       </c>
       <c r="J48" s="29">
-        <v>44257</v>
+        <v>44622</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -9422,7 +9482,7 @@
         <v>46</v>
       </c>
       <c r="J49" s="29">
-        <v>44258</v>
+        <v>44623</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -9443,7 +9503,7 @@
         <v>47</v>
       </c>
       <c r="J50" s="29">
-        <v>44259</v>
+        <v>44624</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -9461,7 +9521,7 @@
         <v>48</v>
       </c>
       <c r="J51" s="29">
-        <v>44260</v>
+        <v>44625</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -9482,7 +9542,7 @@
         <v>49</v>
       </c>
       <c r="J52" s="29">
-        <v>44261</v>
+        <v>44626</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -9503,7 +9563,7 @@
         <v>50</v>
       </c>
       <c r="J53" s="29">
-        <v>44262</v>
+        <v>44627</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -9525,7 +9585,7 @@
         <v>51</v>
       </c>
       <c r="J54" s="29">
-        <v>44263</v>
+        <v>44628</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -9543,7 +9603,7 @@
         <v>52</v>
       </c>
       <c r="J55" s="29">
-        <v>44264</v>
+        <v>44629</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -9561,7 +9621,7 @@
         <v>53</v>
       </c>
       <c r="J56" s="29">
-        <v>44265</v>
+        <v>44630</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -9582,7 +9642,7 @@
         <v>54</v>
       </c>
       <c r="J57" s="29">
-        <v>44266</v>
+        <v>44631</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -9600,7 +9660,7 @@
         <v>55</v>
       </c>
       <c r="J58" s="29">
-        <v>44267</v>
+        <v>44632</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -9621,7 +9681,7 @@
         <v>56</v>
       </c>
       <c r="J59" s="29">
-        <v>44268</v>
+        <v>44633</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -9642,7 +9702,7 @@
         <v>57</v>
       </c>
       <c r="J60" s="29">
-        <v>44269</v>
+        <v>44634</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -9664,7 +9724,7 @@
         <v>58</v>
       </c>
       <c r="J61" s="29">
-        <v>44270</v>
+        <v>44635</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -9682,7 +9742,7 @@
         <v>59</v>
       </c>
       <c r="J62" s="29">
-        <v>44271</v>
+        <v>44636</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -9700,7 +9760,7 @@
         <v>60</v>
       </c>
       <c r="J63" s="29">
-        <v>44272</v>
+        <v>44637</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -9721,7 +9781,7 @@
         <v>61</v>
       </c>
       <c r="J64" s="29">
-        <v>44273</v>
+        <v>44638</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -9739,7 +9799,7 @@
         <v>62</v>
       </c>
       <c r="J65" s="29">
-        <v>44274</v>
+        <v>44639</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -9760,7 +9820,7 @@
         <v>63</v>
       </c>
       <c r="J66" s="29">
-        <v>44275</v>
+        <v>44640</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -9781,7 +9841,7 @@
         <v>64</v>
       </c>
       <c r="J67" s="29">
-        <v>44276</v>
+        <v>44641</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -9803,7 +9863,7 @@
         <v>65</v>
       </c>
       <c r="J68" s="29">
-        <v>44277</v>
+        <v>44642</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -9821,7 +9881,7 @@
         <v>66</v>
       </c>
       <c r="J69" s="29">
-        <v>44278</v>
+        <v>44643</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -9839,7 +9899,7 @@
         <v>67</v>
       </c>
       <c r="J70" s="29">
-        <v>44279</v>
+        <v>44644</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -9857,7 +9917,7 @@
         <v>68</v>
       </c>
       <c r="J71" s="29">
-        <v>44280</v>
+        <v>44645</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -9875,7 +9935,7 @@
         <v>69</v>
       </c>
       <c r="J72" s="29">
-        <v>44281</v>
+        <v>44646</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -9896,7 +9956,7 @@
         <v>70</v>
       </c>
       <c r="J73" s="29">
-        <v>44282</v>
+        <v>44647</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -9917,7 +9977,7 @@
         <v>71</v>
       </c>
       <c r="J74" s="29">
-        <v>44283</v>
+        <v>44648</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -9939,7 +9999,7 @@
         <v>72</v>
       </c>
       <c r="J75" s="29">
-        <v>44284</v>
+        <v>44649</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -9957,7 +10017,7 @@
         <v>73</v>
       </c>
       <c r="J76" s="29">
-        <v>44285</v>
+        <v>44650</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -9975,7 +10035,7 @@
         <v>74</v>
       </c>
       <c r="J77" s="29">
-        <v>44286</v>
+        <v>44651</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -9996,7 +10056,7 @@
         <v>75</v>
       </c>
       <c r="J78" s="29">
-        <v>44287</v>
+        <v>44652</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -10014,7 +10074,7 @@
         <v>76</v>
       </c>
       <c r="J79" s="29">
-        <v>44288</v>
+        <v>44653</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -10035,7 +10095,7 @@
         <v>77</v>
       </c>
       <c r="J80" s="29">
-        <v>44289</v>
+        <v>44654</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -10056,7 +10116,7 @@
         <v>78</v>
       </c>
       <c r="J81" s="29">
-        <v>44290</v>
+        <v>44655</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -10078,7 +10138,7 @@
         <v>79</v>
       </c>
       <c r="J82" s="29">
-        <v>44291</v>
+        <v>44656</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -10096,7 +10156,7 @@
         <v>80</v>
       </c>
       <c r="J83" s="29">
-        <v>44292</v>
+        <v>44657</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -10114,7 +10174,7 @@
         <v>81</v>
       </c>
       <c r="J84" s="29">
-        <v>44293</v>
+        <v>44658</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -10135,7 +10195,7 @@
         <v>82</v>
       </c>
       <c r="J85" s="29">
-        <v>44294</v>
+        <v>44659</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -10153,7 +10213,7 @@
         <v>83</v>
       </c>
       <c r="J86" s="29">
-        <v>44295</v>
+        <v>44660</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -10174,7 +10234,7 @@
         <v>84</v>
       </c>
       <c r="J87" s="29">
-        <v>44296</v>
+        <v>44661</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -10195,7 +10255,7 @@
         <v>85</v>
       </c>
       <c r="J88" s="29">
-        <v>44297</v>
+        <v>44662</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -10217,7 +10277,7 @@
         <v>86</v>
       </c>
       <c r="J89" s="29">
-        <v>44298</v>
+        <v>44663</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -10235,7 +10295,7 @@
         <v>87</v>
       </c>
       <c r="J90" s="29">
-        <v>44299</v>
+        <v>44664</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -10253,7 +10313,7 @@
         <v>88</v>
       </c>
       <c r="J91" s="29">
-        <v>44300</v>
+        <v>44665</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -10274,7 +10334,7 @@
         <v>89</v>
       </c>
       <c r="J92" s="29">
-        <v>44301</v>
+        <v>44666</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -10292,7 +10352,7 @@
         <v>90</v>
       </c>
       <c r="J93" s="29">
-        <v>44302</v>
+        <v>44667</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -10313,7 +10373,7 @@
         <v>91</v>
       </c>
       <c r="J94" s="29">
-        <v>44303</v>
+        <v>44668</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -10334,7 +10394,7 @@
         <v>92</v>
       </c>
       <c r="J95" s="29">
-        <v>44304</v>
+        <v>44669</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -10356,7 +10416,7 @@
         <v>93</v>
       </c>
       <c r="J96" s="29">
-        <v>44305</v>
+        <v>44670</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -10374,7 +10434,7 @@
         <v>94</v>
       </c>
       <c r="J97" s="29">
-        <v>44306</v>
+        <v>44671</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -10392,7 +10452,7 @@
         <v>95</v>
       </c>
       <c r="J98" s="29">
-        <v>44307</v>
+        <v>44672</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -10413,7 +10473,7 @@
         <v>96</v>
       </c>
       <c r="J99" s="29">
-        <v>44308</v>
+        <v>44673</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -10432,7 +10492,7 @@
         <v>97</v>
       </c>
       <c r="J100" s="29">
-        <v>44309</v>
+        <v>44674</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -10453,7 +10513,7 @@
         <v>98</v>
       </c>
       <c r="J101" s="29">
-        <v>44310</v>
+        <v>44675</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -10474,7 +10534,7 @@
         <v>99</v>
       </c>
       <c r="J102" s="29">
-        <v>44311</v>
+        <v>44676</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -10496,7 +10556,7 @@
         <v>100</v>
       </c>
       <c r="J103" s="29">
-        <v>44312</v>
+        <v>44677</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -10514,7 +10574,7 @@
         <v>101</v>
       </c>
       <c r="J104" s="29">
-        <v>44313</v>
+        <v>44678</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -10532,7 +10592,7 @@
         <v>102</v>
       </c>
       <c r="J105" s="29">
-        <v>44314</v>
+        <v>44679</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -10553,7 +10613,7 @@
         <v>103</v>
       </c>
       <c r="J106" s="29">
-        <v>44315</v>
+        <v>44680</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -10571,7 +10631,7 @@
         <v>104</v>
       </c>
       <c r="J107" s="29">
-        <v>44316</v>
+        <v>44681</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -10592,7 +10652,7 @@
         <v>105</v>
       </c>
       <c r="J108" s="29">
-        <v>44317</v>
+        <v>44682</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -10613,7 +10673,7 @@
         <v>106</v>
       </c>
       <c r="J109" s="29">
-        <v>44318</v>
+        <v>44683</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -10635,7 +10695,7 @@
         <v>107</v>
       </c>
       <c r="J110" s="29">
-        <v>44319</v>
+        <v>44684</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -10653,7 +10713,7 @@
         <v>108</v>
       </c>
       <c r="J111" s="29">
-        <v>44320</v>
+        <v>44685</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -10672,7 +10732,7 @@
         <v>109</v>
       </c>
       <c r="J112" s="29">
-        <v>44321</v>
+        <v>44686</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
@@ -10690,7 +10750,7 @@
         <v>110</v>
       </c>
       <c r="J113" s="29">
-        <v>44322</v>
+        <v>44687</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -10708,7 +10768,7 @@
         <v>111</v>
       </c>
       <c r="J114" s="29">
-        <v>44323</v>
+        <v>44688</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -10729,7 +10789,7 @@
         <v>112</v>
       </c>
       <c r="J115" s="29">
-        <v>44324</v>
+        <v>44689</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -10750,7 +10810,7 @@
         <v>113</v>
       </c>
       <c r="J116" s="29">
-        <v>44325</v>
+        <v>44690</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
@@ -10772,7 +10832,7 @@
         <v>114</v>
       </c>
       <c r="J117" s="29">
-        <v>44326</v>
+        <v>44691</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -10790,7 +10850,7 @@
         <v>115</v>
       </c>
       <c r="J118" s="29">
-        <v>44327</v>
+        <v>44692</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.3">
@@ -10811,7 +10871,7 @@
         <v>116</v>
       </c>
       <c r="J119" s="29">
-        <v>44328</v>
+        <v>44693</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.3">
@@ -10829,7 +10889,7 @@
         <v>117</v>
       </c>
       <c r="J120" s="29">
-        <v>44329</v>
+        <v>44694</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.3">
@@ -10848,7 +10908,7 @@
         <v>118</v>
       </c>
       <c r="J121" s="29">
-        <v>44330</v>
+        <v>44695</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.3">

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C9D52C-20D3-4D62-8B96-4D88B35D29DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A22EBEC-A8F4-45F0-964C-FA5328A91E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12.5</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>60.5</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43</c:v>
+                  <c:v>46.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1331,10 +1331,10 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -2071,10 +2071,10 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>12.5</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>60.5</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>46.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4100,6 +4100,12 @@
                 <c:pt idx="19">
                   <c:v>1.5</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4228,6 +4234,12 @@
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4356,6 +4368,12 @@
                 <c:pt idx="19">
                   <c:v>3.5</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4484,6 +4502,12 @@
                 <c:pt idx="19">
                   <c:v>2.5</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4612,6 +4636,12 @@
                 <c:pt idx="19">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4738,6 +4768,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -8286,19 +8322,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>60.5</v>
+        <v>66</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>30.5</v>
+        <v>35</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8306,11 +8342,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>43</v>
+        <v>46.5</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>179</v>
+        <v>196.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8394,8 +8430,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H23)</f>
-        <v>8.9499999999999993</v>
+        <f>AVERAGE(H4:H25)</f>
+        <v>8.9318181818181817</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -8972,15 +9008,27 @@
       <c r="A24" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
+      <c r="B24" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="15">
+        <v>3</v>
+      </c>
+      <c r="E24" s="15">
+        <v>3</v>
+      </c>
+      <c r="F24" s="15">
+        <v>0</v>
+      </c>
+      <c r="G24" s="15">
+        <v>1</v>
+      </c>
       <c r="H24" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I24" s="24">
         <v>21</v>
@@ -8993,15 +9041,27 @@
       <c r="A25" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
+      <c r="B25" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="C25" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="E25" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="F25" s="17">
+        <v>0</v>
+      </c>
+      <c r="G25" s="17">
+        <v>2.5</v>
+      </c>
       <c r="H25" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I25" s="24">
         <v>22</v>
@@ -9013,7 +9073,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="14">
         <f>SUM(H18:H24)</f>
-        <v>65.5</v>
+        <v>74.5</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -9152,7 +9212,7 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <f>SUM(H25:H31)</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A22EBEC-A8F4-45F0-964C-FA5328A91E31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113534E7-7BA6-4EC3-95F9-7941669EE6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1024,13 +1024,13 @@
                   <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13.5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
@@ -1334,7 +1334,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -2074,7 +2074,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>13.5</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>66</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4238,7 +4238,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4372,7 +4372,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.5</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4506,7 +4506,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.5</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8263,7 +8263,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8326,15 +8326,15 @@
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8346,7 +8346,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>196.5</v>
+        <v>199</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8431,7 +8431,7 @@
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
         <f>AVERAGE(H4:H25)</f>
-        <v>8.9318181818181817</v>
+        <v>9.045454545454545</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -9045,13 +9045,13 @@
         <v>1.5</v>
       </c>
       <c r="C25" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D25" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="E25" s="17">
         <v>2.5</v>
-      </c>
-      <c r="E25" s="17">
-        <v>1.5</v>
       </c>
       <c r="F25" s="17">
         <v>0</v>
@@ -9061,7 +9061,7 @@
       </c>
       <c r="H25" s="1">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="I25" s="24">
         <v>22</v>
@@ -9212,7 +9212,7 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <f>SUM(H25:H31)</f>
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{113534E7-7BA6-4EC3-95F9-7941669EE6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BBD545-2E1E-437A-9BBF-5EA190B534E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>46.5</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1337,7 +1337,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -2077,7 +2077,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>46.5</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4106,6 +4106,9 @@
                 <c:pt idx="21">
                   <c:v>1.5</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4240,6 +4243,9 @@
                 <c:pt idx="21">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4374,6 +4380,9 @@
                 <c:pt idx="21">
                   <c:v>3.5</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4508,6 +4517,9 @@
                 <c:pt idx="21">
                   <c:v>2.5</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4642,6 +4654,9 @@
                 <c:pt idx="21">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4774,6 +4789,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="21">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
                   <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -8263,7 +8281,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8322,7 +8340,7 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
@@ -8330,11 +8348,11 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8342,11 +8360,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>46.5</v>
+        <v>49</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>199</v>
+        <v>207.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -9075,15 +9093,27 @@
         <f>SUM(H18:H24)</f>
         <v>74.5</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
+      <c r="B26" s="17">
+        <v>3</v>
+      </c>
+      <c r="C26" s="17">
+        <v>0</v>
+      </c>
+      <c r="D26" s="17">
+        <v>2</v>
+      </c>
+      <c r="E26" s="17">
+        <v>1</v>
+      </c>
+      <c r="F26" s="17">
+        <v>0</v>
+      </c>
+      <c r="G26" s="17">
+        <v>2.5</v>
+      </c>
       <c r="H26" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I26" s="24">
         <v>23</v>
@@ -9212,7 +9242,7 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <f>SUM(H25:H31)</f>
-        <v>11</v>
+        <v>19.5</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6BBD545-2E1E-437A-9BBF-5EA190B534E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FCEA12-062B-4EC7-A471-7C7DB2F87E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,16 +1021,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
@@ -1337,7 +1337,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -2077,7 +2077,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>38</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4107,7 +4107,7 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4244,7 +4244,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4518,7 +4518,7 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8281,7 +8281,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8340,11 +8340,11 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
@@ -8352,7 +8352,7 @@
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8364,7 +8364,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>207.5</v>
+        <v>210</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -9094,16 +9094,16 @@
         <v>74.5</v>
       </c>
       <c r="B26" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C26" s="17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D26" s="17">
         <v>2</v>
       </c>
       <c r="E26" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26" s="17">
         <v>0</v>
@@ -9113,7 +9113,7 @@
       </c>
       <c r="H26" s="1">
         <f t="shared" si="1"/>
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="I26" s="24">
         <v>23</v>
@@ -9242,7 +9242,7 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <f>SUM(H25:H31)</f>
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FCEA12-062B-4EC7-A471-7C7DB2F87E05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE1B132-C7FC-4C9C-810A-0A40865CEFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>39.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69</c:v>
+                  <c:v>69.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>41.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1340,7 +1340,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -2080,7 +2080,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>39</c:v>
+                  <c:v>39.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>69</c:v>
+                  <c:v>69.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>38</c:v>
+                  <c:v>41.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>49</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4109,6 +4109,9 @@
                 <c:pt idx="22">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4246,6 +4249,9 @@
                 <c:pt idx="22">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4383,6 +4389,9 @@
                 <c:pt idx="22">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4520,6 +4529,9 @@
                 <c:pt idx="22">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4657,6 +4669,9 @@
                 <c:pt idx="22">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4793,6 +4808,9 @@
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8281,7 +8299,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8340,7 +8358,7 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>39</v>
+        <v>39.5</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
@@ -8348,11 +8366,11 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>69</v>
+        <v>69.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>38</v>
+        <v>41.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8360,11 +8378,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>210</v>
+        <v>216.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8448,8 +8466,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H25)</f>
-        <v>9.045454545454545</v>
+        <f>AVERAGE(H4:H26)</f>
+        <v>9.1304347826086953</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -9123,15 +9141,27 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
+      <c r="B27" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C27" s="17">
+        <v>0</v>
+      </c>
+      <c r="D27" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="E27" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="F27" s="17">
+        <v>0</v>
+      </c>
+      <c r="G27" s="17">
+        <v>2</v>
+      </c>
       <c r="H27" s="1">
         <f>SUM(B27:G27)</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="I27" s="24">
         <v>24</v>
@@ -9242,7 +9272,7 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <f>SUM(H25:H31)</f>
-        <v>22</v>
+        <v>28.5</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE1B132-C7FC-4C9C-810A-0A40865CEFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7626A14B-3F44-4250-BB25-E9E9D4743E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,13 +1021,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>39.5</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>69.5</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>41.5</c:v>
@@ -1340,7 +1340,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -2080,7 +2080,7 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.5</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>39.5</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>14.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>69.5</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4110,7 +4110,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.5</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4250,7 +4250,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4390,7 +4390,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8298,8 +8298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8358,15 +8358,15 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>39.5</v>
+        <v>40.5</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>69.5</v>
+        <v>72</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
@@ -8382,7 +8382,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>216.5</v>
+        <v>220.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -9142,13 +9142,13 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B27" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="C27" s="17">
         <v>0.5</v>
       </c>
-      <c r="C27" s="17">
-        <v>0</v>
-      </c>
       <c r="D27" s="17">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="E27" s="17">
         <v>3.5</v>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(B27:G27)</f>
-        <v>6.5</v>
+        <v>10.5</v>
       </c>
       <c r="I27" s="24">
         <v>24</v>
@@ -9272,7 +9272,7 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <f>SUM(H25:H31)</f>
-        <v>28.5</v>
+        <v>32.5</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7626A14B-3F44-4250-BB25-E9E9D4743E91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFF4E47-4217-4277-B1D0-A20E566A47C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1024,7 +1024,7 @@
                   <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>72</c:v>
@@ -1036,7 +1036,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>51</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1343,7 +1343,7 @@
                   <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -2083,7 +2083,7 @@
                   <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>51</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4252,6 +4252,9 @@
                 <c:pt idx="23">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4811,6 +4814,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8298,8 +8304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8362,7 +8368,7 @@
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
@@ -8378,11 +8384,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>220.5</v>
+        <v>225.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -9172,14 +9178,18 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
       <c r="D28" s="17"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
+      <c r="G28" s="17">
+        <v>4</v>
+      </c>
       <c r="H28" s="1">
         <f>SUM(B28:G28)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I28" s="24">
         <v>25</v>
@@ -9272,7 +9282,7 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <f>SUM(H25:H31)</f>
-        <v>32.5</v>
+        <v>37.5</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFF4E47-4217-4277-B1D0-A20E566A47C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF4D497-5DF4-4A47-8494-5B116189406D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,16 +1021,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>40.5</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72</c:v>
+                  <c:v>73.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.5</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
@@ -1343,7 +1343,7 @@
                   <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -2083,7 +2083,7 @@
                   <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>40.5</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>72</c:v>
+                  <c:v>73.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>41.5</c:v>
+                  <c:v>42.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4112,6 +4112,9 @@
                 <c:pt idx="23">
                   <c:v>1.5</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4253,7 +4256,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4395,6 +4398,9 @@
                 <c:pt idx="23">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4535,6 +4541,9 @@
                 <c:pt idx="23">
                   <c:v>3.5</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4673,6 +4682,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8304,8 +8316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8364,19 +8376,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>40.5</v>
+        <v>44</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>72</v>
+        <v>73.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>41.5</v>
+        <v>42.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8388,7 +8400,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>225.5</v>
+        <v>232.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -9177,19 +9189,27 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B28" s="17"/>
+      <c r="B28" s="17">
+        <v>3.5</v>
+      </c>
       <c r="C28" s="17">
+        <v>2</v>
+      </c>
+      <c r="D28" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="E28" s="17">
         <v>1</v>
       </c>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
+      <c r="F28" s="17">
+        <v>0</v>
+      </c>
       <c r="G28" s="17">
         <v>4</v>
       </c>
       <c r="H28" s="1">
         <f>SUM(B28:G28)</f>
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I28" s="24">
         <v>25</v>
@@ -9282,7 +9302,7 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <f>SUM(H25:H31)</f>
-        <v>37.5</v>
+        <v>44.5</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF4D497-5DF4-4A47-8494-5B116189406D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF218E46-AFDF-483A-A421-4B295A201776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>73.5</c:v>
+                  <c:v>80.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.5</c:v>
+                  <c:v>45.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1346,10 +1346,10 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
@@ -2086,10 +2086,10 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>44</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>17</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>73.5</c:v>
+                  <c:v>80.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>42.5</c:v>
+                  <c:v>45.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>55</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4115,6 +4115,12 @@
                 <c:pt idx="24">
                   <c:v>3.5</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4258,6 +4264,12 @@
                 <c:pt idx="24">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4401,6 +4413,12 @@
                 <c:pt idx="24">
                   <c:v>1.5</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4544,6 +4562,12 @@
                 <c:pt idx="24">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4687,6 +4711,12 @@
                 <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4829,6 +4859,12 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8316,8 +8352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8376,19 +8412,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>73.5</v>
+        <v>80.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>42.5</v>
+        <v>45.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8396,11 +8432,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>232.5</v>
+        <v>251.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8484,8 +8520,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H26)</f>
-        <v>9.1304347826086953</v>
+        <f>AVERAGE(H4:H30)</f>
+        <v>9.3148148148148149</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -9222,15 +9258,27 @@
       <c r="A29" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
+      <c r="B29" s="17">
+        <v>1</v>
+      </c>
+      <c r="C29" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="D29" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="E29" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="F29" s="17">
+        <v>0</v>
+      </c>
+      <c r="G29" s="17">
+        <v>2</v>
+      </c>
       <c r="H29" s="1">
         <f>SUM(B29:G29)</f>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="I29" s="24">
         <v>26</v>
@@ -9240,15 +9288,27 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
+      <c r="B30" s="17">
+        <v>1</v>
+      </c>
+      <c r="C30" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="E30" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="F30" s="17">
+        <v>0</v>
+      </c>
+      <c r="G30" s="17">
+        <v>3</v>
+      </c>
       <c r="H30" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="I30" s="24">
         <v>27</v>
@@ -9302,7 +9362,7 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <f>SUM(H25:H31)</f>
-        <v>44.5</v>
+        <v>63.5</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF218E46-AFDF-483A-A421-4B295A201776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BC1058-9862-425D-B0AF-FC64AC4FB0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>46</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>80.5</c:v>
+                  <c:v>85.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45.5</c:v>
+                  <c:v>47.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1352,10 +1352,10 @@
                   <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
@@ -2092,10 +2092,10 @@
                   <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>46</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>80.5</c:v>
+                  <c:v>85.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>45.5</c:v>
+                  <c:v>47.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4121,6 +4121,12 @@
                 <c:pt idx="26">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4270,6 +4276,9 @@
                 <c:pt idx="26">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4419,6 +4428,12 @@
                 <c:pt idx="26">
                   <c:v>3.5</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4568,6 +4583,12 @@
                 <c:pt idx="26">
                   <c:v>1.5</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4717,6 +4738,12 @@
                 <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4865,6 +4892,12 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8352,8 +8385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8412,7 +8445,7 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
@@ -8420,11 +8453,11 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>80.5</v>
+        <v>85.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>45.5</v>
+        <v>47.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8432,11 +8465,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>251.5</v>
+        <v>264.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -9321,15 +9354,27 @@
       <c r="A31" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
+      <c r="B31" s="17">
+        <v>1</v>
+      </c>
+      <c r="C31" s="17">
+        <v>0</v>
+      </c>
+      <c r="D31" s="17">
+        <v>4</v>
+      </c>
+      <c r="E31" s="17">
+        <v>1</v>
+      </c>
+      <c r="F31" s="17">
+        <v>0</v>
+      </c>
+      <c r="G31" s="17">
+        <v>2</v>
+      </c>
       <c r="H31" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I31" s="24">
         <v>28</v>
@@ -9342,15 +9387,25 @@
       <c r="A32" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="15"/>
+      <c r="B32" s="15">
+        <v>1</v>
+      </c>
       <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
+      <c r="D32" s="15">
+        <v>1</v>
+      </c>
+      <c r="E32" s="15">
+        <v>1</v>
+      </c>
+      <c r="F32" s="15">
+        <v>0</v>
+      </c>
+      <c r="G32" s="15">
+        <v>2</v>
+      </c>
       <c r="H32" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I32" s="24">
         <v>29</v>
@@ -9362,7 +9417,7 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <f>SUM(H25:H31)</f>
-        <v>63.5</v>
+        <v>71.5</v>
       </c>
       <c r="B33" s="15"/>
       <c r="C33" s="15"/>
@@ -9501,7 +9556,7 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <f>SUM(H32:H38)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0BC1058-9862-425D-B0AF-FC64AC4FB0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D242A5AC-67BB-4A18-A3D5-C557A57CBB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1030,7 +1030,7 @@
                   <c:v>85.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>47.5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
@@ -1355,7 +1355,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
@@ -2095,7 +2095,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>47.5</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4279,6 +4279,9 @@
                 <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4587,7 +4590,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8385,8 +8388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8457,7 +8460,7 @@
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>47.5</v>
+        <v>50</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8469,7 +8472,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>264.5</v>
+        <v>267</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -9390,12 +9393,14 @@
       <c r="B32" s="15">
         <v>1</v>
       </c>
-      <c r="C32" s="15"/>
+      <c r="C32" s="15">
+        <v>0</v>
+      </c>
       <c r="D32" s="15">
         <v>1</v>
       </c>
       <c r="E32" s="15">
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="F32" s="15">
         <v>0</v>
@@ -9405,7 +9410,7 @@
       </c>
       <c r="H32" s="1">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="I32" s="24">
         <v>29</v>
@@ -9556,7 +9561,7 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <f>SUM(H32:H38)</f>
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D242A5AC-67BB-4A18-A3D5-C557A57CBB4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26ACFED-46B5-494C-B578-6F0FE8169C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1027,10 +1027,10 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>85.5</c:v>
+                  <c:v>86.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
@@ -1355,7 +1355,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
@@ -2095,7 +2095,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.5</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>85.5</c:v>
+                  <c:v>86.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>52.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4435,7 +4435,7 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4590,7 +4590,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>3.5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8389,7 +8389,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8456,11 +8456,11 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>85.5</v>
+        <v>86.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>50</v>
+        <v>52.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8472,7 +8472,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>267</v>
+        <v>270.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -9397,10 +9397,10 @@
         <v>0</v>
       </c>
       <c r="D32" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" s="15">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="F32" s="15">
         <v>0</v>
@@ -9410,7 +9410,7 @@
       </c>
       <c r="H32" s="1">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="I32" s="24">
         <v>29</v>
@@ -9561,7 +9561,7 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <f>SUM(H32:H38)</f>
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26ACFED-46B5-494C-B578-6F0FE8169C46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C656305E-6062-4767-8D79-779C0FA2CB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,7 +1021,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>19</c:v>
@@ -1030,7 +1030,7 @@
                   <c:v>86.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>52.5</c:v>
+                  <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
@@ -1355,10 +1355,10 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
@@ -2095,10 +2095,10 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>11</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>52.5</c:v>
+                  <c:v>57.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4127,6 +4127,9 @@
                 <c:pt idx="28">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4590,7 +4593,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4745,6 +4751,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8388,7 +8397,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -8448,7 +8457,7 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
@@ -8460,7 +8469,7 @@
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>52.5</v>
+        <v>57.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8472,7 +8481,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>270.5</v>
+        <v>276.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8556,8 +8565,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H30)</f>
-        <v>9.3148148148148149</v>
+        <f>AVERAGE(H4:H32)</f>
+        <v>9.4655172413793096</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -9400,7 +9409,7 @@
         <v>2</v>
       </c>
       <c r="E32" s="15">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F32" s="15">
         <v>0</v>
@@ -9410,7 +9419,7 @@
       </c>
       <c r="H32" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I32" s="24">
         <v>29</v>
@@ -9424,15 +9433,21 @@
         <f>SUM(H25:H31)</f>
         <v>71.5</v>
       </c>
-      <c r="B33" s="15"/>
+      <c r="B33" s="15">
+        <v>1</v>
+      </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="E33" s="15">
+        <v>1</v>
+      </c>
+      <c r="F33" s="15">
+        <v>0</v>
+      </c>
       <c r="G33" s="15"/>
       <c r="H33" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" s="24">
         <v>30</v>
@@ -9561,7 +9576,7 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <f>SUM(H32:H38)</f>
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C656305E-6062-4767-8D79-779C0FA2CB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F90A4CF-5A79-4FDE-ACC7-992C12100C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,13 +1021,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>49</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>86.5</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>57.5</c:v>
@@ -1036,7 +1036,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1358,7 +1358,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
@@ -2098,7 +2098,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>49</c:v>
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>86.5</c:v>
+                  <c:v>87.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>64</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4128,7 +4128,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4285,6 +4285,9 @@
                 <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4440,6 +4443,9 @@
                 <c:pt idx="28">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4909,6 +4915,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="28">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="29">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -8398,7 +8407,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8457,15 +8466,15 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>86.5</v>
+        <v>87.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
@@ -8477,11 +8486,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>276.5</v>
+        <v>282.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -9434,20 +9443,26 @@
         <v>71.5</v>
       </c>
       <c r="B33" s="15">
+        <v>3</v>
+      </c>
+      <c r="C33" s="15">
         <v>1</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+      <c r="D33" s="15">
+        <v>1</v>
+      </c>
       <c r="E33" s="15">
         <v>1</v>
       </c>
       <c r="F33" s="15">
         <v>0</v>
       </c>
-      <c r="G33" s="15"/>
+      <c r="G33" s="15">
+        <v>2</v>
+      </c>
       <c r="H33" s="1">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="I33" s="24">
         <v>30</v>
@@ -9576,7 +9591,7 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <f>SUM(H32:H38)</f>
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F90A4CF-5A79-4FDE-ACC7-992C12100C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7C15E1-ACE2-4A56-9872-3BC4D8F62E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,10 +1021,10 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>51</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>87.5</c:v>
@@ -1036,7 +1036,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1358,7 +1358,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
@@ -2098,7 +2098,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>51</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>66</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4128,7 +4128,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4286,7 +4286,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4918,7 +4918,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8406,8 +8406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8466,11 +8466,11 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
@@ -8486,11 +8486,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>282.5</v>
+        <v>285.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -9443,10 +9443,10 @@
         <v>71.5</v>
       </c>
       <c r="B33" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C33" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" s="15">
         <v>1</v>
@@ -9458,11 +9458,11 @@
         <v>0</v>
       </c>
       <c r="G33" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="I33" s="24">
         <v>30</v>
@@ -9591,7 +9591,7 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <f>SUM(H32:H38)</f>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7C15E1-ACE2-4A56-9872-3BC4D8F62E78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB01EFB-508A-482E-8131-0AFDE1BDD40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1024,13 +1024,13 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87.5</c:v>
+                  <c:v>88.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>57.5</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
@@ -1358,7 +1358,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
@@ -2098,7 +2098,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>11</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>87.5</c:v>
+                  <c:v>88.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>57.5</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4286,7 +4286,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4444,7 +4444,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4602,7 +4602,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8407,7 +8407,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8470,15 +8470,15 @@
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>87.5</v>
+        <v>88.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>57.5</v>
+        <v>58</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8490,7 +8490,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>285.5</v>
+        <v>289</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8574,8 +8574,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H32)</f>
-        <v>9.4655172413793096</v>
+        <f>AVERAGE(H4:H33)</f>
+        <v>9.6333333333333329</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -9446,13 +9446,13 @@
         <v>4</v>
       </c>
       <c r="C33" s="15">
+        <v>4</v>
+      </c>
+      <c r="D33" s="15">
         <v>2</v>
       </c>
-      <c r="D33" s="15">
-        <v>1</v>
-      </c>
       <c r="E33" s="15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F33" s="15">
         <v>0</v>
@@ -9462,7 +9462,7 @@
       </c>
       <c r="H33" s="1">
         <f t="shared" si="1"/>
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="I33" s="24">
         <v>30</v>
@@ -9591,7 +9591,7 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <f>SUM(H32:H38)</f>
-        <v>26</v>
+        <v>29.5</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB01EFB-508A-482E-8131-0AFDE1BDD40D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E6D60D-90E0-429F-99D8-F689F5AE9290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1027,16 +1027,16 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88.5</c:v>
+                  <c:v>89.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1361,7 +1361,7 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -2101,7 +2101,7 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>88.5</c:v>
+                  <c:v>89.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4446,6 +4446,9 @@
                 <c:pt idx="29">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4604,6 +4607,9 @@
                 <c:pt idx="29">
                   <c:v>1.5</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4918,6 +4924,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
@@ -8407,7 +8416,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8474,11 +8483,11 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>88.5</v>
+        <v>89.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8486,11 +8495,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -9474,13 +9483,19 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B34" s="15"/>
       <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
+      <c r="D34" s="15">
+        <v>1</v>
+      </c>
+      <c r="E34" s="15">
+        <v>3</v>
+      </c>
       <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
+      <c r="G34" s="15">
+        <v>3</v>
+      </c>
       <c r="H34" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I34" s="24">
         <v>31</v>
@@ -9591,7 +9606,7 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <f>SUM(H32:H38)</f>
-        <v>29.5</v>
+        <v>36.5</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E6D60D-90E0-429F-99D8-F689F5AE9290}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADA087A-2583-48A3-B9BF-B6273141CB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1027,10 +1027,10 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>89.5</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
@@ -1361,7 +1361,7 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -2101,7 +2101,7 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>89.5</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>61</c:v>
+                  <c:v>61.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4130,6 +4130,9 @@
                 <c:pt idx="29">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4288,6 +4291,9 @@
                 <c:pt idx="29">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4447,7 +4453,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4608,7 +4614,7 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4766,6 +4772,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -8415,7 +8424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -8483,11 +8492,11 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>89.5</v>
+        <v>95</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>61</v>
+        <v>61.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8499,7 +8508,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8583,8 +8592,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H33)</f>
-        <v>9.6333333333333329</v>
+        <f>AVERAGE(H4:H34)</f>
+        <v>9.741935483870968</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -9481,21 +9490,27 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
+      <c r="B34" s="15">
+        <v>0</v>
+      </c>
+      <c r="C34" s="15">
+        <v>0</v>
+      </c>
       <c r="D34" s="15">
-        <v>1</v>
+        <v>6.5</v>
       </c>
       <c r="E34" s="15">
-        <v>3</v>
-      </c>
-      <c r="F34" s="15"/>
+        <v>3.5</v>
+      </c>
+      <c r="F34" s="15">
+        <v>0</v>
+      </c>
       <c r="G34" s="15">
         <v>3</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="I34" s="24">
         <v>31</v>
@@ -9606,7 +9621,7 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <f>SUM(H32:H38)</f>
-        <v>36.5</v>
+        <v>42.5</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADA087A-2583-48A3-B9BF-B6273141CB96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE101854-65F6-403D-BD74-7ABB47D8B451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1027,7 +1027,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95</c:v>
+                  <c:v>96.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>61.5</c:v>
@@ -1361,7 +1361,7 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -2101,7 +2101,7 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>96.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4453,7 +4453,7 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.5</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8424,7 +8424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -8492,7 +8492,7 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>95</v>
+        <v>96.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
@@ -8508,7 +8508,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>302</v>
+        <v>303.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8593,7 +8593,7 @@
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
         <f>AVERAGE(H4:H34)</f>
-        <v>9.741935483870968</v>
+        <v>9.7903225806451619</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -9497,7 +9497,7 @@
         <v>0</v>
       </c>
       <c r="D34" s="15">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="E34" s="15">
         <v>3.5</v>
@@ -9510,7 +9510,7 @@
       </c>
       <c r="H34" s="1">
         <f t="shared" si="1"/>
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="I34" s="24">
         <v>31</v>
@@ -9621,7 +9621,7 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <f>SUM(H32:H38)</f>
-        <v>42.5</v>
+        <v>44</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE101854-65F6-403D-BD74-7ABB47D8B451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABEB4FA-B28E-4557-BC10-75817AF9F75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1027,7 +1027,7 @@
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>96.5</c:v>
+                  <c:v>99.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>61.5</c:v>
@@ -1036,7 +1036,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,7 +1364,7 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
@@ -2104,7 +2104,7 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>96.5</c:v>
+                  <c:v>99.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>70</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4455,6 +4455,9 @@
                 <c:pt idx="30">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4777,6 +4780,9 @@
                 <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4937,6 +4943,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8424,8 +8433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8492,7 +8501,7 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>96.5</v>
+        <v>99.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
@@ -8504,11 +8513,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>303.5</v>
+        <v>310.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -9522,13 +9531,19 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
+      <c r="D35" s="15">
+        <v>3</v>
+      </c>
       <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
+      <c r="F35" s="15">
+        <v>0</v>
+      </c>
+      <c r="G35" s="15">
+        <v>4</v>
+      </c>
       <c r="H35" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I35" s="24">
         <v>32</v>
@@ -9621,7 +9636,7 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <f>SUM(H32:H38)</f>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABEB4FA-B28E-4557-BC10-75817AF9F75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF5BC5F-6D1E-495E-BCC9-C053842F2E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>55.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>99.5</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>61.5</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74</c:v>
+                  <c:v>75.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,10 +1364,10 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
@@ -2104,10 +2104,10 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>55.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>99.5</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>61.5</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>74</c:v>
+                  <c:v>75.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4133,6 +4133,12 @@
                 <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4294,6 +4300,9 @@
                 <c:pt idx="30">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4456,7 +4465,10 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3</c:v>
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4619,6 +4631,12 @@
                 <c:pt idx="30">
                   <c:v>3.5</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4783,6 +4801,9 @@
                 <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4946,6 +4967,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8433,8 +8457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8493,19 +8517,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>52</v>
+        <v>55.5</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>23</v>
+        <v>23.5</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>99.5</v>
+        <v>104</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>61.5</v>
+        <v>63</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8513,11 +8537,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>74</v>
+        <v>75.5</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>310.5</v>
+        <v>322</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8601,8 +8625,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H34)</f>
-        <v>9.7903225806451619</v>
+        <f>AVERAGE(H4:H35)</f>
+        <v>9.859375</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -9529,12 +9553,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
+      <c r="B35" s="15">
+        <v>1</v>
+      </c>
+      <c r="C35" s="15">
+        <v>0.5</v>
+      </c>
       <c r="D35" s="15">
-        <v>3</v>
-      </c>
-      <c r="E35" s="15"/>
+        <v>5.5</v>
+      </c>
+      <c r="E35" s="15">
+        <v>1</v>
+      </c>
       <c r="F35" s="15">
         <v>0</v>
       </c>
@@ -9543,7 +9573,7 @@
       </c>
       <c r="H35" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I35" s="24">
         <v>32</v>
@@ -9556,15 +9586,25 @@
       <c r="A36" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="15"/>
+      <c r="B36" s="15">
+        <v>2.5</v>
+      </c>
       <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
+      <c r="D36" s="15">
+        <v>2</v>
+      </c>
+      <c r="E36" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="F36" s="15">
+        <v>0</v>
+      </c>
+      <c r="G36" s="15">
+        <v>1.5</v>
+      </c>
       <c r="H36" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="I36" s="24">
         <v>33</v>
@@ -9636,7 +9676,7 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <f>SUM(H32:H38)</f>
-        <v>51</v>
+        <v>62.5</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DF5BC5F-6D1E-495E-BCC9-C053842F2E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62747AD0-5B75-4762-A6A1-76DB21DC4A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>55.5</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.5</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>104</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>63</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75.5</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1367,16 +1367,16 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0</c:v>
@@ -2107,16 +2107,16 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>6.5</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>55.5</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>23.5</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>104</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>63</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>75.5</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4139,6 +4139,15 @@
                 <c:pt idx="32">
                   <c:v>2.5</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4303,6 +4312,18 @@
                 <c:pt idx="31">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4470,6 +4491,15 @@
                 <c:pt idx="32">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4637,6 +4667,15 @@
                 <c:pt idx="32">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4804,6 +4843,15 @@
                 <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4969,7 +5017,16 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8457,8 +8514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8517,19 +8574,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>55.5</v>
+        <v>59</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>23.5</v>
+        <v>26</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8537,11 +8594,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>75.5</v>
+        <v>81</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>322</v>
+        <v>352.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8625,8 +8682,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H35)</f>
-        <v>9.859375</v>
+        <f>AVERAGE(H4:H38)</f>
+        <v>9.6714285714285708</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -9589,7 +9646,9 @@
       <c r="B36" s="15">
         <v>2.5</v>
       </c>
-      <c r="C36" s="15"/>
+      <c r="C36" s="15">
+        <v>0.5</v>
+      </c>
       <c r="D36" s="15">
         <v>2</v>
       </c>
@@ -9600,11 +9659,11 @@
         <v>0</v>
       </c>
       <c r="G36" s="15">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="1"/>
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="I36" s="24">
         <v>33</v>
@@ -9614,15 +9673,27 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
+      <c r="B37" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="C37" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D37" s="15">
+        <v>3</v>
+      </c>
+      <c r="E37" s="15">
+        <v>1</v>
+      </c>
+      <c r="F37" s="15">
+        <v>0</v>
+      </c>
+      <c r="G37" s="15">
+        <v>1.5</v>
+      </c>
       <c r="H37" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="I37" s="24">
         <v>34</v>
@@ -9635,15 +9706,27 @@
       <c r="A38" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
+      <c r="B38" s="15">
+        <v>1</v>
+      </c>
+      <c r="C38" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D38" s="15">
+        <v>3</v>
+      </c>
+      <c r="E38" s="15">
+        <v>2</v>
+      </c>
+      <c r="F38" s="15">
+        <v>0</v>
+      </c>
+      <c r="G38" s="15">
+        <v>1.5</v>
+      </c>
       <c r="H38" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I38" s="24">
         <v>35</v>
@@ -9656,15 +9739,27 @@
       <c r="A39" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
+      <c r="B39" s="17">
+        <v>1</v>
+      </c>
+      <c r="C39" s="17">
+        <v>1</v>
+      </c>
+      <c r="D39" s="17">
+        <v>7</v>
+      </c>
+      <c r="E39" s="17">
+        <v>3</v>
+      </c>
+      <c r="F39" s="17">
+        <v>0</v>
+      </c>
+      <c r="G39" s="17">
+        <v>2</v>
+      </c>
       <c r="H39" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I39" s="24">
         <v>36</v>
@@ -9676,7 +9771,7 @@
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="14">
         <f>SUM(H32:H38)</f>
-        <v>62.5</v>
+        <v>79</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -9815,7 +9910,7 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="19">
         <f>SUM(H39:H45)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62747AD0-5B75-4762-A6A1-76DB21DC4A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE86F81-BD2C-4063-BFC7-A6167CB107C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>59</c:v>
+                  <c:v>65.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>117</c:v>
+                  <c:v>119.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69</c:v>
+                  <c:v>69.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1379,7 +1379,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
@@ -2119,7 +2119,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>59</c:v>
+                  <c:v>65.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>26</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>117</c:v>
+                  <c:v>119.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>69</c:v>
+                  <c:v>69.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>81</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4148,6 +4148,9 @@
                 <c:pt idx="35">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4324,6 +4327,9 @@
                 <c:pt idx="35">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4500,6 +4506,9 @@
                 <c:pt idx="35">
                   <c:v>7</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4676,6 +4685,9 @@
                 <c:pt idx="35">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4852,6 +4864,9 @@
                 <c:pt idx="35">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5027,6 +5042,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8514,8 +8532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8574,19 +8592,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>59</v>
+        <v>65.5</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>117</v>
+        <v>119.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>69</v>
+        <v>69.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8594,11 +8612,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>352.5</v>
+        <v>367</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8682,8 +8700,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H38)</f>
-        <v>9.6714285714285708</v>
+        <f>AVERAGE(H4:H40)</f>
+        <v>9.9189189189189193</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -9773,15 +9791,27 @@
         <f>SUM(H32:H38)</f>
         <v>79</v>
       </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
+      <c r="B40" s="17">
+        <v>6.5</v>
+      </c>
+      <c r="C40" s="17">
+        <v>1</v>
+      </c>
+      <c r="D40" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="E40" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F40" s="17">
+        <v>0</v>
+      </c>
+      <c r="G40" s="17">
+        <v>4</v>
+      </c>
       <c r="H40" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="I40" s="24">
         <v>37</v>
@@ -9910,7 +9940,7 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="19">
         <f>SUM(H39:H45)</f>
-        <v>14</v>
+        <v>28.5</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FE86F81-BD2C-4063-BFC7-A6167CB107C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E96CFD-5928-4F81-B545-11C01848A7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>65.5</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>119.5</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69.5</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>85</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1382,7 +1382,7 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0</c:v>
@@ -2122,7 +2122,7 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>65.5</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>119.5</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>69.5</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>85</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4151,6 +4151,9 @@
                 <c:pt idx="36">
                   <c:v>6.5</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4509,6 +4512,9 @@
                 <c:pt idx="36">
                   <c:v>2.5</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4688,6 +4694,9 @@
                 <c:pt idx="36">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5044,6 +5053,9 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -8532,8 +8544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8592,7 +8604,7 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>65.5</v>
+        <v>66</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
@@ -8600,11 +8612,11 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>119.5</v>
+        <v>120</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>69.5</v>
+        <v>71</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8612,11 +8624,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>367</v>
+        <v>373.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -9821,15 +9833,23 @@
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B41" s="17"/>
+      <c r="B41" s="17">
+        <v>0.5</v>
+      </c>
       <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
+      <c r="D41" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="E41" s="17">
+        <v>1.5</v>
+      </c>
       <c r="F41" s="17"/>
-      <c r="G41" s="17"/>
+      <c r="G41" s="17">
+        <v>4</v>
+      </c>
       <c r="H41" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="I41" s="24">
         <v>38</v>
@@ -9940,7 +9960,7 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="19">
         <f>SUM(H39:H45)</f>
-        <v>28.5</v>
+        <v>35</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E96CFD-5928-4F81-B545-11C01848A7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6AAB85-DBA1-4993-8D29-097BFE45F4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>66</c:v>
+                  <c:v>68.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>120</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>71</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>89</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1382,10 +1382,10 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.5</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0</c:v>
@@ -2122,10 +2122,10 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.5</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>66</c:v>
+                  <c:v>68.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>120</c:v>
+                  <c:v>128.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>71</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>89</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4152,7 +4152,10 @@
                   <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4333,6 +4336,12 @@
                 <c:pt idx="36">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4513,7 +4522,10 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5</c:v>
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4695,7 +4707,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4876,6 +4888,12 @@
                 <c:pt idx="36">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5056,6 +5074,9 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -8544,8 +8565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8604,19 +8625,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>66</v>
+        <v>68.5</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>27</v>
+        <v>27.5</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>120</v>
+        <v>128.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>71</v>
+        <v>72.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8624,11 +8645,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>373.5</v>
+        <v>388.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8712,8 +8733,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H40)</f>
-        <v>9.9189189189189193</v>
+        <f>AVERAGE(H4:H41)</f>
+        <v>10.039473684210526</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -9834,22 +9855,26 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B41" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="C41" s="17"/>
+        <v>2</v>
+      </c>
+      <c r="C41" s="17">
+        <v>0</v>
+      </c>
       <c r="D41" s="17">
-        <v>0.5</v>
+        <v>7.5</v>
       </c>
       <c r="E41" s="17">
-        <v>1.5</v>
-      </c>
-      <c r="F41" s="17"/>
+        <v>3</v>
+      </c>
+      <c r="F41" s="17">
+        <v>0</v>
+      </c>
       <c r="G41" s="17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="1"/>
-        <v>6.5</v>
+        <v>14.5</v>
       </c>
       <c r="I41" s="24">
         <v>38</v>
@@ -9859,15 +9884,25 @@
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
+      <c r="B42" s="17">
+        <v>1</v>
+      </c>
+      <c r="C42" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="D42" s="17">
+        <v>1.5</v>
+      </c>
       <c r="E42" s="17"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="17"/>
+      <c r="F42" s="17">
+        <v>0</v>
+      </c>
+      <c r="G42" s="17">
+        <v>4</v>
+      </c>
       <c r="H42" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I42" s="24">
         <v>39</v>
@@ -9960,7 +9995,7 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="19">
         <f>SUM(H39:H45)</f>
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6AAB85-DBA1-4993-8D29-097BFE45F4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33A0A4C-0C2A-4821-AC8E-F5C34E5FEF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>68.5</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27.5</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>128.5</c:v>
+                  <c:v>142.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72.5</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91</c:v>
+                  <c:v>91.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1385,10 +1385,10 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
@@ -2125,10 +2125,10 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>7</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>68.5</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>27.5</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>128.5</c:v>
+                  <c:v>142.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>72.5</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>91</c:v>
+                  <c:v>91.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4155,7 +4155,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1</c:v>
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4342,6 +4345,9 @@
                 <c:pt idx="38">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4525,7 +4531,10 @@
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.5</c:v>
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4709,6 +4718,12 @@
                 <c:pt idx="37">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4894,6 +4909,9 @@
                 <c:pt idx="38">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5078,6 +5096,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8566,7 +8587,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8625,19 +8646,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>68.5</v>
+        <v>72.5</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>27.5</v>
+        <v>28</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>128.5</v>
+        <v>142.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>72.5</v>
+        <v>75</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8645,11 +8666,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>91</v>
+        <v>91.5</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>388.5</v>
+        <v>410</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8733,8 +8754,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H41)</f>
-        <v>10.039473684210526</v>
+        <f>AVERAGE(H4:H43)</f>
+        <v>10.25</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -9885,15 +9906,17 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42" s="17">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="C42" s="17">
         <v>0.5</v>
       </c>
       <c r="D42" s="17">
+        <v>3</v>
+      </c>
+      <c r="E42" s="17">
         <v>1.5</v>
       </c>
-      <c r="E42" s="17"/>
       <c r="F42" s="17">
         <v>0</v>
       </c>
@@ -9902,7 +9925,7 @@
       </c>
       <c r="H42" s="1">
         <f t="shared" si="1"/>
-        <v>7</v>
+        <v>13.5</v>
       </c>
       <c r="I42" s="24">
         <v>39</v>
@@ -9915,15 +9938,27 @@
       <c r="A43" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="17"/>
+      <c r="B43" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C43" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="17">
+        <v>12.5</v>
+      </c>
+      <c r="E43" s="17">
+        <v>1</v>
+      </c>
+      <c r="F43" s="17">
+        <v>0</v>
+      </c>
+      <c r="G43" s="17">
+        <v>0.5</v>
+      </c>
       <c r="H43" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I43" s="24">
         <v>40</v>
@@ -9995,7 +10030,7 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="19">
         <f>SUM(H39:H45)</f>
-        <v>50</v>
+        <v>71.5</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D33A0A4C-0C2A-4821-AC8E-F5C34E5FEF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19306B29-C212-46EE-9DC2-DD360AB04D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>72.5</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>142.5</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91.5</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1391,7 +1391,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0</c:v>
@@ -2131,7 +2131,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>72.5</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>28</c:v>
+                  <c:v>28.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>142.5</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>91.5</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4160,6 +4160,9 @@
                 <c:pt idx="39">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4348,6 +4351,9 @@
                 <c:pt idx="39">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4536,6 +4542,9 @@
                 <c:pt idx="39">
                   <c:v>12.5</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4724,6 +4733,9 @@
                 <c:pt idx="39">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4912,6 +4924,9 @@
                 <c:pt idx="39">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5098,6 +5113,9 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="39">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -8586,8 +8604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8646,19 +8664,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>72.5</v>
+        <v>73</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>142.5</v>
+        <v>154</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8666,11 +8684,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>91.5</v>
+        <v>92</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>410</v>
+        <v>424</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -9968,15 +9986,27 @@
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="17"/>
+      <c r="B44" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C44" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="17">
+        <v>11.5</v>
+      </c>
+      <c r="E44" s="17">
+        <v>1</v>
+      </c>
+      <c r="F44" s="17">
+        <v>0</v>
+      </c>
+      <c r="G44" s="17">
+        <v>0.5</v>
+      </c>
       <c r="H44" s="1">
         <f>SUM(B44:G44)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I44" s="24">
         <v>41</v>
@@ -10030,7 +10060,7 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="19">
         <f>SUM(H39:H45)</f>
-        <v>71.5</v>
+        <v>85.5</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19306B29-C212-46EE-9DC2-DD360AB04D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337B025E-8FB1-470D-BE55-74543774353A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,16 +1021,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>73</c:v>
+                  <c:v>73.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>154</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
@@ -1394,7 +1394,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>7.25</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
@@ -2134,7 +2134,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>7.25</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>73</c:v>
+                  <c:v>73.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>154</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>76</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4163,6 +4163,9 @@
                 <c:pt idx="40">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.25</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4354,6 +4357,9 @@
                 <c:pt idx="40">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4545,6 +4551,9 @@
                 <c:pt idx="40">
                   <c:v>11.5</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4736,6 +4745,9 @@
                 <c:pt idx="40">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4927,6 +4939,9 @@
                 <c:pt idx="40">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5117,6 +5132,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8605,7 +8623,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8664,7 +8682,7 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>73</v>
+        <v>73.25</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
@@ -8672,11 +8690,11 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8688,7 +8706,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>424</v>
+        <v>431.25</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -10019,15 +10037,27 @@
       <c r="A45" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
-      <c r="G45" s="17"/>
+      <c r="B45" s="17">
+        <v>0.25</v>
+      </c>
+      <c r="C45" s="17">
+        <v>0</v>
+      </c>
+      <c r="D45" s="17">
+        <v>6</v>
+      </c>
+      <c r="E45" s="17">
+        <v>1</v>
+      </c>
+      <c r="F45" s="17">
+        <v>0</v>
+      </c>
+      <c r="G45" s="17">
+        <v>0</v>
+      </c>
       <c r="H45" s="1">
         <f t="shared" ref="H45:H50" si="2">SUM(B45:G45)</f>
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="I45" s="24">
         <v>42</v>
@@ -10060,7 +10090,7 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="19">
         <f>SUM(H39:H45)</f>
-        <v>85.5</v>
+        <v>92.75</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{337B025E-8FB1-470D-BE55-74543774353A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73DE52F-13FB-45C2-8749-B191F0616A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1027,7 +1027,7 @@
                   <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>160</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>77</c:v>
@@ -1394,7 +1394,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.25</c:v>
+                  <c:v>10.25</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
@@ -2134,7 +2134,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>7.25</c:v>
+                  <c:v>10.25</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0</c:v>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>160</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4552,7 +4552,7 @@
                   <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8622,8 +8622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8690,7 +8690,7 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
@@ -8706,7 +8706,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>431.25</v>
+        <v>434.25</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8790,8 +8790,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H43)</f>
-        <v>10.25</v>
+        <f>AVERAGE(H4:H45)</f>
+        <v>10.339285714285714</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -10044,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E45" s="17">
         <v>1</v>
@@ -10057,7 +10057,7 @@
       </c>
       <c r="H45" s="1">
         <f t="shared" ref="H45:H50" si="2">SUM(B45:G45)</f>
-        <v>7.25</v>
+        <v>10.25</v>
       </c>
       <c r="I45" s="24">
         <v>42</v>
@@ -10090,7 +10090,7 @@
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="19">
         <f>SUM(H39:H45)</f>
-        <v>92.75</v>
+        <v>95.75</v>
       </c>
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73DE52F-13FB-45C2-8749-B191F0616A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480773ED-23B2-4801-82BB-356356AEB7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>73.25</c:v>
+                  <c:v>73.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>28.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>163</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>77</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>92</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1397,7 +1397,7 @@
                   <c:v>10.25</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>12.25</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0</c:v>
@@ -2137,7 +2137,7 @@
                   <c:v>10.25</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>12.25</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>73.25</c:v>
+                  <c:v>73.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>163</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>77</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>92</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4166,6 +4166,9 @@
                 <c:pt idx="41">
                   <c:v>0.25</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.25</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4554,6 +4557,9 @@
                 <c:pt idx="41">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4748,6 +4754,9 @@
                 <c:pt idx="41">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5135,6 +5144,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8623,7 +8635,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8682,7 +8694,7 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>73.25</v>
+        <v>73.5</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
@@ -8690,11 +8702,11 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8702,11 +8714,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>434.25</v>
+        <v>446.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -10070,15 +10082,23 @@
       <c r="A46" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="15"/>
+      <c r="B46" s="15">
+        <v>0.25</v>
+      </c>
       <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
+      <c r="D46" s="15">
+        <v>9</v>
+      </c>
+      <c r="E46" s="15">
+        <v>1</v>
+      </c>
       <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
+      <c r="G46" s="15">
+        <v>2</v>
+      </c>
       <c r="H46" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="I46" s="24">
         <v>43</v>
@@ -10229,7 +10249,7 @@
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <f>SUM(H46:H52)</f>
-        <v>0</v>
+        <v>12.25</v>
       </c>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480773ED-23B2-4801-82BB-356356AEB7A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F9B7B3-CCA7-4F8E-899A-A60D65D9A6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>73.5</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>172</c:v>
+                  <c:v>183.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78</c:v>
+                  <c:v>80.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94</c:v>
+                  <c:v>94.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1397,10 +1397,10 @@
                   <c:v>10.25</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>12.25</c:v>
+                  <c:v>13.75</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0</c:v>
@@ -2137,10 +2137,10 @@
                   <c:v>10.25</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>12.25</c:v>
+                  <c:v>13.75</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>73.5</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>28.5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>172</c:v>
+                  <c:v>183.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>78</c:v>
+                  <c:v>80.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>94</c:v>
+                  <c:v>94.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4169,6 +4169,9 @@
                 <c:pt idx="42">
                   <c:v>0.25</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4363,6 +4366,12 @@
                 <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4558,7 +4567,10 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>10.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4757,6 +4769,9 @@
                 <c:pt idx="42">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4951,6 +4966,12 @@
                 <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5147,6 +5168,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8635,7 +8659,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8694,19 +8718,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>73.5</v>
+        <v>74</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>28.5</v>
+        <v>30</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>172</v>
+        <v>183.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>78</v>
+        <v>80.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8714,11 +8738,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>446.5</v>
+        <v>463</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -10085,20 +10109,24 @@
       <c r="B46" s="15">
         <v>0.25</v>
       </c>
-      <c r="C46" s="15"/>
+      <c r="C46" s="15">
+        <v>0.5</v>
+      </c>
       <c r="D46" s="15">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" s="15">
         <v>1</v>
       </c>
-      <c r="F46" s="15"/>
+      <c r="F46" s="15">
+        <v>0</v>
+      </c>
       <c r="G46" s="15">
         <v>2</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="2"/>
-        <v>12.25</v>
+        <v>13.75</v>
       </c>
       <c r="I46" s="24">
         <v>43</v>
@@ -10112,15 +10140,27 @@
         <f>SUM(H39:H45)</f>
         <v>95.75</v>
       </c>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
+      <c r="B47" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="C47" s="15">
+        <v>1</v>
+      </c>
+      <c r="D47" s="15">
+        <v>10.5</v>
+      </c>
+      <c r="E47" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="F47" s="15">
+        <v>0</v>
+      </c>
+      <c r="G47" s="15">
+        <v>0.5</v>
+      </c>
       <c r="H47" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I47" s="24">
         <v>44</v>
@@ -10249,7 +10289,7 @@
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <f>SUM(H46:H52)</f>
-        <v>12.25</v>
+        <v>28.75</v>
       </c>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F9B7B3-CCA7-4F8E-899A-A60D65D9A6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29F7BED-C8C8-4A9B-B0CC-8DCF28E688AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1027,16 +1027,16 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>183.5</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80.5</c:v>
+                  <c:v>83.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>94.5</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1403,7 +1403,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
@@ -2143,7 +2143,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>183.5</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>80.5</c:v>
+                  <c:v>83.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>94.5</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4172,6 +4172,9 @@
                 <c:pt idx="43">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4372,6 +4375,9 @@
                 <c:pt idx="43">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4572,6 +4578,9 @@
                 <c:pt idx="43">
                   <c:v>10.5</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4772,6 +4781,9 @@
                 <c:pt idx="43">
                   <c:v>2.5</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4972,6 +4984,9 @@
                 <c:pt idx="43">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5171,6 +5186,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8658,8 +8676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8726,11 +8744,11 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>183.5</v>
+        <v>193</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>80.5</v>
+        <v>83.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8738,11 +8756,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>94.5</v>
+        <v>97</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>463</v>
+        <v>478</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -10170,15 +10188,27 @@
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
+      <c r="B48" s="15">
+        <v>0</v>
+      </c>
+      <c r="C48" s="15">
+        <v>0</v>
+      </c>
+      <c r="D48" s="15">
+        <v>9.5</v>
+      </c>
+      <c r="E48" s="15">
+        <v>3</v>
+      </c>
+      <c r="F48" s="15">
+        <v>0</v>
+      </c>
+      <c r="G48" s="15">
+        <v>2.5</v>
+      </c>
       <c r="H48" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I48" s="24">
         <v>45</v>
@@ -10289,7 +10319,7 @@
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <f>SUM(H46:H52)</f>
-        <v>28.75</v>
+        <v>43.75</v>
       </c>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29F7BED-C8C8-4A9B-B0CC-8DCF28E688AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7451B26C-94E0-484A-950E-9266E1FA3F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1024,19 +1024,19 @@
                   <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>193</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>83.5</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1406,7 +1406,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0</c:v>
@@ -2146,7 +2146,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0</c:v>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>193</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>83.5</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>97</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4378,6 +4378,9 @@
                 <c:pt idx="44">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4581,6 +4584,9 @@
                 <c:pt idx="44">
                   <c:v>9.5</c:v>
                 </c:pt>
+                <c:pt idx="45">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4784,6 +4790,9 @@
                 <c:pt idx="44">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4987,6 +4996,9 @@
                 <c:pt idx="44">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5189,6 +5201,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8676,8 +8691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8740,15 +8755,15 @@
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>30</v>
+        <v>31.5</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>83.5</v>
+        <v>85</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8756,11 +8771,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>97</v>
+        <v>98.5</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>478</v>
+        <v>485.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -10219,14 +10234,24 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
+      <c r="C49" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="D49" s="15">
+        <v>3</v>
+      </c>
+      <c r="E49" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="F49" s="15">
+        <v>0</v>
+      </c>
+      <c r="G49" s="15">
+        <v>1.5</v>
+      </c>
       <c r="H49" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="I49" s="24">
         <v>46</v>
@@ -10319,7 +10344,7 @@
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <f>SUM(H46:H52)</f>
-        <v>43.75</v>
+        <v>51.25</v>
       </c>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7451B26C-94E0-484A-950E-9266E1FA3F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04502F54-CAF5-4F7D-8E5F-AC46017B2689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>74</c:v>
+                  <c:v>76.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>31.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>196</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>85</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98.5</c:v>
+                  <c:v>105.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1406,13 +1406,13 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0</c:v>
@@ -2146,13 +2146,13 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>7.5</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>74</c:v>
+                  <c:v>76.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>31.5</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>196</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>85</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>98.5</c:v>
+                  <c:v>105.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4175,6 +4175,15 @@
                 <c:pt idx="44">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4381,6 +4390,12 @@
                 <c:pt idx="45">
                   <c:v>1.5</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4585,7 +4600,13 @@
                   <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="45">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4793,6 +4814,12 @@
                 <c:pt idx="45">
                   <c:v>1.5</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4999,6 +5026,12 @@
                 <c:pt idx="45">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5203,7 +5236,13 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.5</c:v>
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8691,8 +8730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8751,19 +8790,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>74</v>
+        <v>76.5</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>31.5</v>
+        <v>35</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8771,11 +8810,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>98.5</v>
+        <v>105.5</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>485.5</v>
+        <v>508.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -10233,12 +10272,14 @@
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B49" s="15"/>
+      <c r="B49" s="15">
+        <v>0.5</v>
+      </c>
       <c r="C49" s="15">
         <v>1.5</v>
       </c>
       <c r="D49" s="15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E49" s="15">
         <v>1.5</v>
@@ -10247,11 +10288,11 @@
         <v>0</v>
       </c>
       <c r="G49" s="15">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" si="2"/>
-        <v>7.5</v>
+        <v>13</v>
       </c>
       <c r="I49" s="24">
         <v>46</v>
@@ -10264,15 +10305,27 @@
       <c r="A50" t="s">
         <v>35</v>
       </c>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
+      <c r="B50" s="15">
+        <v>1</v>
+      </c>
+      <c r="C50" s="15">
+        <v>2.5</v>
+      </c>
+      <c r="D50" s="15">
+        <v>3</v>
+      </c>
+      <c r="E50" s="15">
+        <v>2</v>
+      </c>
+      <c r="F50" s="15">
+        <v>0</v>
+      </c>
+      <c r="G50" s="15">
+        <v>1</v>
+      </c>
       <c r="H50" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="I50" s="24">
         <v>47</v>
@@ -10282,15 +10335,27 @@
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
+      <c r="B51" s="15">
+        <v>1</v>
+      </c>
+      <c r="C51" s="15">
+        <v>1</v>
+      </c>
+      <c r="D51" s="15">
+        <v>2</v>
+      </c>
+      <c r="E51" s="15">
+        <v>1</v>
+      </c>
+      <c r="F51" s="15">
+        <v>0</v>
+      </c>
+      <c r="G51" s="15">
+        <v>3</v>
+      </c>
       <c r="H51" s="1">
         <f t="shared" ref="H51:H56" si="3">SUM(B51:G51)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I51" s="24">
         <v>48</v>
@@ -10344,7 +10409,7 @@
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <f>SUM(H46:H52)</f>
-        <v>51.25</v>
+        <v>74.25</v>
       </c>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04502F54-CAF5-4F7D-8E5F-AC46017B2689}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B366818-CD78-4BB7-95EB-F011DA43CD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>76.5</c:v>
+                  <c:v>82.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35</c:v>
+                  <c:v>39.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>203</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>88</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>105.5</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1415,13 +1415,13 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
@@ -2155,13 +2155,13 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>76.5</c:v>
+                  <c:v>82.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>39.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>203</c:v>
+                  <c:v>212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>88</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>105.5</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4184,6 +4184,15 @@
                 <c:pt idx="47">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4396,6 +4405,15 @@
                 <c:pt idx="47">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4608,6 +4626,15 @@
                 <c:pt idx="47">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4820,6 +4847,15 @@
                 <c:pt idx="47">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5032,6 +5068,15 @@
                 <c:pt idx="47">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5243,6 +5288,15 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8731,7 +8785,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8790,19 +8844,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>76.5</v>
+        <v>82.5</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>35</v>
+        <v>39.5</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8810,11 +8864,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>105.5</v>
+        <v>113</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>508.5</v>
+        <v>542.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8898,8 +8952,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H45)</f>
-        <v>10.339285714285714</v>
+        <f>AVERAGE(H4:H53)</f>
+        <v>10.61</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -10368,15 +10422,27 @@
       <c r="A52" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
+      <c r="B52" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="C52" s="15">
+        <v>1</v>
+      </c>
+      <c r="D52" s="15">
+        <v>4</v>
+      </c>
+      <c r="E52" s="15">
+        <v>2</v>
+      </c>
+      <c r="F52" s="15">
+        <v>0</v>
+      </c>
+      <c r="G52" s="15">
+        <v>1.5</v>
+      </c>
       <c r="H52" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I52" s="24">
         <v>49</v>
@@ -10389,15 +10455,27 @@
       <c r="A53" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="17"/>
+      <c r="B53" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="C53" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="D53" s="17">
+        <v>3</v>
+      </c>
+      <c r="E53" s="17">
+        <v>3</v>
+      </c>
+      <c r="F53" s="17">
+        <v>0</v>
+      </c>
+      <c r="G53" s="17">
+        <v>2</v>
+      </c>
       <c r="H53" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I53" s="24">
         <v>50</v>
@@ -10409,17 +10487,29 @@
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="14">
         <f>SUM(H46:H52)</f>
-        <v>74.25</v>
-      </c>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="17"/>
+        <v>84.25</v>
+      </c>
+      <c r="B54" s="17">
+        <v>3</v>
+      </c>
+      <c r="C54" s="17">
+        <v>1</v>
+      </c>
+      <c r="D54" s="17">
+        <v>2</v>
+      </c>
+      <c r="E54" s="17">
+        <v>2</v>
+      </c>
+      <c r="F54" s="17">
+        <v>0</v>
+      </c>
+      <c r="G54" s="17">
+        <v>4</v>
+      </c>
       <c r="H54" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I54" s="24">
         <v>51</v>
@@ -10548,7 +10638,7 @@
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="19">
         <f>SUM(H53:H59)</f>
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B366818-CD78-4BB7-95EB-F011DA43CD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD8FBE8-58E9-408A-93AA-B6419DEC0FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>82.5</c:v>
+                  <c:v>86.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.5</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>212</c:v>
+                  <c:v>213.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>95</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>113</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1424,7 +1424,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0</c:v>
@@ -2164,7 +2164,7 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>82.5</c:v>
+                  <c:v>86.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>39.5</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>212</c:v>
+                  <c:v>213.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>113</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4193,6 +4193,9 @@
                 <c:pt idx="50">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4414,6 +4417,9 @@
                 <c:pt idx="50">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4635,6 +4641,9 @@
                 <c:pt idx="50">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4856,6 +4865,9 @@
                 <c:pt idx="50">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5077,6 +5089,9 @@
                 <c:pt idx="50">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5297,6 +5312,9 @@
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8785,7 +8803,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8844,19 +8862,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>82.5</v>
+        <v>86.5</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>39.5</v>
+        <v>43</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>212</v>
+        <v>213.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>95</v>
+        <v>98.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -8864,11 +8882,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>542.5</v>
+        <v>557</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -10519,15 +10537,27 @@
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="17"/>
+      <c r="B55" s="17">
+        <v>4</v>
+      </c>
+      <c r="C55" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="D55" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="E55" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="F55" s="17">
+        <v>0</v>
+      </c>
+      <c r="G55" s="17">
+        <v>2</v>
+      </c>
       <c r="H55" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="I55" s="24">
         <v>52</v>
@@ -10638,7 +10668,7 @@
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="19">
         <f>SUM(H53:H59)</f>
-        <v>24</v>
+        <v>38.5</v>
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD8FBE8-58E9-408A-93AA-B6419DEC0FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98AC0BD-34BE-4F9B-9328-B3184DE26B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,13 +1021,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>86.5</c:v>
+                  <c:v>89.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>213.5</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>98.5</c:v>
@@ -1036,7 +1036,7 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>115</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1427,7 +1427,7 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0</c:v>
@@ -2167,7 +2167,7 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>86.5</c:v>
+                  <c:v>89.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>213.5</c:v>
+                  <c:v>214</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>115</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4196,6 +4196,9 @@
                 <c:pt idx="51">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="52">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4420,6 +4423,9 @@
                 <c:pt idx="51">
                   <c:v>3.5</c:v>
                 </c:pt>
+                <c:pt idx="52">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4644,6 +4650,9 @@
                 <c:pt idx="51">
                   <c:v>1.5</c:v>
                 </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5092,6 +5101,9 @@
                 <c:pt idx="51">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5315,6 +5327,9 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8802,8 +8817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8862,15 +8877,15 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>86.5</v>
+        <v>89.5</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>213.5</v>
+        <v>214</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
@@ -8882,11 +8897,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>557</v>
+        <v>566.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8970,8 +8985,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H53)</f>
-        <v>10.61</v>
+        <f>AVERAGE(H4:H56)</f>
+        <v>10.688679245283019</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -10567,15 +10582,25 @@
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
+      <c r="B56" s="17">
+        <v>3</v>
+      </c>
+      <c r="C56" s="17">
+        <v>2</v>
+      </c>
+      <c r="D56" s="17">
+        <v>0.5</v>
+      </c>
       <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
+      <c r="F56" s="17">
+        <v>0</v>
+      </c>
+      <c r="G56" s="17">
+        <v>4</v>
+      </c>
       <c r="H56" s="1">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="I56" s="24">
         <v>53</v>
@@ -10668,7 +10693,7 @@
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="19">
         <f>SUM(H53:H59)</f>
-        <v>38.5</v>
+        <v>48</v>
       </c>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98AC0BD-34BE-4F9B-9328-B3184DE26B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3500AE4-64B8-4308-B278-680EDFE11003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>89.5</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>214</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.5</c:v>
+                  <c:v>109.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>119</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1427,37 +1427,37 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.5</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0</c:v>
@@ -2167,37 +2167,37 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>9.5</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>89.5</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>45</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>214</c:v>
+                  <c:v>232</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>98.5</c:v>
+                  <c:v>109.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3593,7 +3593,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>119</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4197,7 +4197,37 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4426,6 +4456,36 @@
                 <c:pt idx="52">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4651,7 +4711,37 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.5</c:v>
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4877,6 +4967,39 @@
                 <c:pt idx="51">
                   <c:v>3.5</c:v>
                 </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5104,6 +5227,36 @@
                 <c:pt idx="52">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5330,6 +5483,36 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8817,8 +9000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8877,31 +9060,31 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>89.5</v>
+        <v>97</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>98.5</v>
+        <v>109.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>566.5</v>
+        <v>638.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -8985,8 +9168,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H56)</f>
-        <v>10.688679245283019</v>
+        <f>AVERAGE(H4:H66)</f>
+        <v>10.134920634920634</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -10583,15 +10766,17 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B56" s="17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C56" s="17">
         <v>2</v>
       </c>
       <c r="D56" s="17">
-        <v>0.5</v>
-      </c>
-      <c r="E56" s="17"/>
+        <v>1.5</v>
+      </c>
+      <c r="E56" s="17">
+        <v>1</v>
+      </c>
       <c r="F56" s="17">
         <v>0</v>
       </c>
@@ -10600,7 +10785,7 @@
       </c>
       <c r="H56" s="1">
         <f t="shared" si="3"/>
-        <v>9.5</v>
+        <v>14.5</v>
       </c>
       <c r="I56" s="24">
         <v>53</v>
@@ -10613,15 +10798,27 @@
       <c r="A57" t="s">
         <v>36</v>
       </c>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="17"/>
+      <c r="B57" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C57" s="17">
+        <v>1</v>
+      </c>
+      <c r="D57" s="17">
+        <v>3</v>
+      </c>
+      <c r="E57" s="17">
+        <v>4</v>
+      </c>
+      <c r="F57" s="17">
+        <v>0</v>
+      </c>
+      <c r="G57" s="17">
+        <v>0</v>
+      </c>
       <c r="H57" s="1">
         <f t="shared" ref="H57:H62" si="4">SUM(B57:G57)</f>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I57" s="24">
         <v>54</v>
@@ -10631,15 +10828,27 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
+      <c r="B58" s="17">
+        <v>0</v>
+      </c>
+      <c r="C58" s="17">
+        <v>0</v>
+      </c>
+      <c r="D58" s="17">
+        <v>0</v>
+      </c>
+      <c r="E58" s="17">
+        <v>2</v>
+      </c>
+      <c r="F58" s="17">
+        <v>0</v>
+      </c>
+      <c r="G58" s="17">
+        <v>5</v>
+      </c>
       <c r="H58" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I58" s="24">
         <v>55</v>
@@ -10652,15 +10861,27 @@
       <c r="A59" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
+      <c r="B59" s="17">
+        <v>0</v>
+      </c>
+      <c r="C59" s="17">
+        <v>0</v>
+      </c>
+      <c r="D59" s="17">
+        <v>0</v>
+      </c>
+      <c r="E59" s="17">
+        <v>0</v>
+      </c>
+      <c r="F59" s="17">
+        <v>0</v>
+      </c>
+      <c r="G59" s="17">
+        <v>10</v>
+      </c>
       <c r="H59" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I59" s="24">
         <v>56</v>
@@ -10673,15 +10894,27 @@
       <c r="A60" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
+      <c r="B60" s="15">
+        <v>0</v>
+      </c>
+      <c r="C60" s="15">
+        <v>0</v>
+      </c>
+      <c r="D60" s="15">
+        <v>0</v>
+      </c>
+      <c r="E60" s="15">
+        <v>0</v>
+      </c>
+      <c r="F60" s="15">
+        <v>0</v>
+      </c>
+      <c r="G60" s="15">
+        <v>10</v>
+      </c>
       <c r="H60" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I60" s="24">
         <v>57</v>
@@ -10693,17 +10926,29 @@
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="19">
         <f>SUM(H53:H59)</f>
-        <v>48</v>
-      </c>
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
+        <v>78.5</v>
+      </c>
+      <c r="B61" s="15">
+        <v>0</v>
+      </c>
+      <c r="C61" s="15">
+        <v>0</v>
+      </c>
+      <c r="D61" s="15">
+        <v>0</v>
+      </c>
+      <c r="E61" s="15">
+        <v>0</v>
+      </c>
+      <c r="F61" s="15">
+        <v>0</v>
+      </c>
+      <c r="G61" s="15">
+        <v>5</v>
+      </c>
       <c r="H61" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I61" s="24">
         <v>58</v>
@@ -10713,15 +10958,27 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
+      <c r="B62" s="15">
+        <v>1</v>
+      </c>
+      <c r="C62" s="15">
+        <v>0</v>
+      </c>
+      <c r="D62" s="15">
+        <v>3</v>
+      </c>
+      <c r="E62" s="15">
+        <v>0</v>
+      </c>
+      <c r="F62" s="15">
+        <v>0</v>
+      </c>
+      <c r="G62" s="15">
+        <v>1</v>
+      </c>
       <c r="H62" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I62" s="24">
         <v>59</v>
@@ -10731,15 +10988,27 @@
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
+      <c r="B63" s="15">
+        <v>0</v>
+      </c>
+      <c r="C63" s="15">
+        <v>1</v>
+      </c>
+      <c r="D63" s="15">
+        <v>4</v>
+      </c>
+      <c r="E63" s="15">
+        <v>1</v>
+      </c>
+      <c r="F63" s="15">
+        <v>0</v>
+      </c>
+      <c r="G63" s="15">
+        <v>0</v>
+      </c>
       <c r="H63" s="1">
         <f t="shared" ref="H63:H68" si="5">SUM(B63:G63)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I63" s="24">
         <v>60</v>
@@ -10752,15 +11021,27 @@
       <c r="A64" t="s">
         <v>37</v>
       </c>
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
+      <c r="B64" s="15">
+        <v>1</v>
+      </c>
+      <c r="C64" s="15">
+        <v>0</v>
+      </c>
+      <c r="D64" s="15">
+        <v>2</v>
+      </c>
+      <c r="E64" s="15">
+        <v>1</v>
+      </c>
+      <c r="F64" s="15">
+        <v>0</v>
+      </c>
+      <c r="G64" s="15">
+        <v>0</v>
+      </c>
       <c r="H64" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I64" s="24">
         <v>61</v>
@@ -10770,15 +11051,27 @@
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
+      <c r="B65" s="15">
+        <v>1</v>
+      </c>
+      <c r="C65" s="15">
+        <v>1</v>
+      </c>
+      <c r="D65" s="15">
+        <v>2</v>
+      </c>
+      <c r="E65" s="15">
+        <v>1</v>
+      </c>
+      <c r="F65" s="15">
+        <v>0</v>
+      </c>
+      <c r="G65" s="15">
+        <v>0</v>
+      </c>
       <c r="H65" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I65" s="24">
         <v>62</v>
@@ -10791,15 +11084,27 @@
       <c r="A66" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
+      <c r="B66" s="15">
+        <v>1</v>
+      </c>
+      <c r="C66" s="15">
+        <v>1</v>
+      </c>
+      <c r="D66" s="15">
+        <v>3</v>
+      </c>
+      <c r="E66" s="15">
+        <v>1</v>
+      </c>
+      <c r="F66" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="G66" s="15">
+        <v>0</v>
+      </c>
       <c r="H66" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="I66" s="24">
         <v>63</v>
@@ -10832,7 +11137,7 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="14">
         <f>SUM(H60:H66)</f>
-        <v>0</v>
+        <v>41.5</v>
       </c>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3500AE4-64B8-4308-B278-680EDFE11003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370795DD-1995-44AB-BBC4-F2A0C63A8602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>97</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>49</c:v>
+                  <c:v>51.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>232</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>109.5</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>150</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1460,10 +1460,10 @@
                   <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>0</c:v>
@@ -2200,10 +2200,10 @@
                   <c:v>6.5</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>10.5</c:v>
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>97</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>49</c:v>
+                  <c:v>51.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>232</c:v>
+                  <c:v>235</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>109.5</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3593,7 +3593,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>150</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4229,6 +4229,12 @@
                 <c:pt idx="62">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4486,6 +4492,12 @@
                 <c:pt idx="62">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4743,6 +4755,12 @@
                 <c:pt idx="62">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5000,6 +5018,12 @@
                 <c:pt idx="62">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5257,6 +5281,12 @@
                 <c:pt idx="62">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5513,6 +5543,12 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9000,8 +9036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9060,31 +9096,31 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>97</v>
+        <v>98.5</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>49</v>
+        <v>51.5</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>109.5</v>
+        <v>119</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>638.5</v>
+        <v>663.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -11117,15 +11153,27 @@
       <c r="A67" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
-      <c r="G67" s="17"/>
+      <c r="B67" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C67" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="D67" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="E67" s="17">
+        <v>8.5</v>
+      </c>
+      <c r="F67" s="17">
+        <v>1</v>
+      </c>
+      <c r="G67" s="17">
+        <v>2.5</v>
+      </c>
       <c r="H67" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="I67" s="24">
         <v>64</v>
@@ -11139,15 +11187,27 @@
         <f>SUM(H60:H66)</f>
         <v>41.5</v>
       </c>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
-      <c r="G68" s="17"/>
+      <c r="B68" s="17">
+        <v>1</v>
+      </c>
+      <c r="C68" s="17">
+        <v>2</v>
+      </c>
+      <c r="D68" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="E68" s="17">
+        <v>1</v>
+      </c>
+      <c r="F68" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="G68" s="17">
+        <v>4.5</v>
+      </c>
       <c r="H68" s="1">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="I68" s="24">
         <v>65</v>
@@ -11273,7 +11333,7 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="19">
         <f>SUM(H67:H73)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370795DD-1995-44AB-BBC4-F2A0C63A8602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56ADC85C-F13B-4F37-B6D5-8F0CEE72C629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>98.5</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.5</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>235</c:v>
+                  <c:v>235.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>119</c:v>
+                  <c:v>125.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>157</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1463,10 +1463,10 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>0</c:v>
@@ -2203,10 +2203,10 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>10.5</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>98.5</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>51.5</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>235</c:v>
+                  <c:v>235.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>119</c:v>
+                  <c:v>125.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>157</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4233,7 +4233,10 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1</c:v>
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4498,6 +4501,9 @@
                 <c:pt idx="64">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4761,6 +4767,9 @@
                 <c:pt idx="64">
                   <c:v>1.5</c:v>
                 </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5022,7 +5031,10 @@
                   <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5287,6 +5299,9 @@
                 <c:pt idx="64">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5549,6 +5564,9 @@
                 </c:pt>
                 <c:pt idx="64">
                   <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9036,8 +9054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9096,19 +9114,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>98.5</v>
+        <v>108</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>51.5</v>
+        <v>52</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>235</v>
+        <v>235.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>119</v>
+        <v>125.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -9116,11 +9134,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>663.5</v>
+        <v>682.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -11188,7 +11206,7 @@
         <v>41.5</v>
       </c>
       <c r="B68" s="17">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="C68" s="17">
         <v>2</v>
@@ -11197,7 +11215,7 @@
         <v>1.5</v>
       </c>
       <c r="E68" s="17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F68" s="17">
         <v>0.5</v>
@@ -11207,7 +11225,7 @@
       </c>
       <c r="H68" s="1">
         <f t="shared" si="5"/>
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="I68" s="24">
         <v>65</v>
@@ -11217,15 +11235,27 @@
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="17"/>
+      <c r="B69" s="17">
+        <v>8</v>
+      </c>
+      <c r="C69" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="D69" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="E69" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="F69" s="17">
+        <v>0</v>
+      </c>
+      <c r="G69" s="17">
+        <v>2</v>
+      </c>
       <c r="H69" s="1">
         <f t="shared" ref="H69:H74" si="6">SUM(B69:G69)</f>
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="I69" s="24">
         <v>66</v>
@@ -11333,7 +11363,7 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="19">
         <f>SUM(H67:H73)</f>
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56ADC85C-F13B-4F37-B6D5-8F0CEE72C629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31C5835-11BD-4382-94A3-1C5AA972B0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1024,19 +1024,19 @@
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>235.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>125.5</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>159</c:v>
+                  <c:v>162.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1469,7 +1469,7 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>0</c:v>
@@ -2209,7 +2209,7 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>0</c:v>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>52</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>125.5</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>159</c:v>
+                  <c:v>162.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4504,6 +4504,9 @@
                 <c:pt idx="65">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="66">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5036,6 +5039,9 @@
                 <c:pt idx="65">
                   <c:v>3.5</c:v>
                 </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5302,6 +5308,9 @@
                 <c:pt idx="65">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5567,6 +5576,9 @@
                 </c:pt>
                 <c:pt idx="65">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9054,8 +9066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9118,7 +9130,7 @@
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
@@ -9126,7 +9138,7 @@
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>125.5</v>
+        <v>126</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -9134,11 +9146,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>159</v>
+        <v>162.5</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>682.5</v>
+        <v>689.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -9222,8 +9234,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H66)</f>
-        <v>10.134920634920634</v>
+        <f>AVERAGE(H4:H69)</f>
+        <v>10.340909090909092</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -11266,14 +11278,22 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
+      <c r="C70" s="17">
+        <v>3</v>
+      </c>
       <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="17"/>
+      <c r="E70" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F70" s="17">
+        <v>0</v>
+      </c>
+      <c r="G70" s="17">
+        <v>3.5</v>
+      </c>
       <c r="H70" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I70" s="24">
         <v>67</v>
@@ -11363,7 +11383,7 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="19">
         <f>SUM(H67:H73)</f>
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B75" s="15"/>
       <c r="C75" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31C5835-11BD-4382-94A3-1C5AA972B0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37ECBB6-203D-4A18-83C1-4465238DF366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>108</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>235.5</c:v>
+                  <c:v>268.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>126</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>162.5</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1469,25 +1469,25 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>0</c:v>
@@ -2209,25 +2209,25 @@
                   <c:v>14.5</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>7</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>108</c:v>
+                  <c:v>117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>55</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>235.5</c:v>
+                  <c:v>268.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>126</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>162.5</c:v>
+                  <c:v>172</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4238,6 +4238,24 @@
                 <c:pt idx="65">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="66">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4507,6 +4525,21 @@
                 <c:pt idx="66">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4773,6 +4806,24 @@
                 <c:pt idx="65">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5042,6 +5093,24 @@
                 <c:pt idx="66">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="67">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5311,6 +5380,21 @@
                 <c:pt idx="66">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5579,6 +5663,21 @@
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9067,7 +9166,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+      <selection activeCell="E77" sqref="E77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9126,19 +9225,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>235.5</v>
+        <v>268.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -9146,11 +9245,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>162.5</v>
+        <v>172</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>689.5</v>
+        <v>755</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -9234,8 +9333,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H69)</f>
-        <v>10.340909090909092</v>
+        <f>AVERAGE(H4:H75)</f>
+        <v>10.4375</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -11277,11 +11376,15 @@
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B70" s="17"/>
+      <c r="B70" s="17">
+        <v>7</v>
+      </c>
       <c r="C70" s="17">
         <v>3</v>
       </c>
-      <c r="D70" s="17"/>
+      <c r="D70" s="17">
+        <v>1.5</v>
+      </c>
       <c r="E70" s="17">
         <v>0.5</v>
       </c>
@@ -11293,7 +11396,7 @@
       </c>
       <c r="H70" s="1">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>15.5</v>
       </c>
       <c r="I70" s="24">
         <v>67</v>
@@ -11303,15 +11406,27 @@
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
-      <c r="G71" s="17"/>
+      <c r="B71" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C71" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="D71" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="E71" s="17">
+        <v>2</v>
+      </c>
+      <c r="F71" s="17">
+        <v>0</v>
+      </c>
+      <c r="G71" s="17">
+        <v>3</v>
+      </c>
       <c r="H71" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I71" s="24">
         <v>68</v>
@@ -11321,15 +11436,27 @@
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17"/>
+      <c r="B72" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C72" s="17">
+        <v>0</v>
+      </c>
+      <c r="D72" s="17">
+        <v>5</v>
+      </c>
+      <c r="E72" s="17">
+        <v>0</v>
+      </c>
+      <c r="F72" s="17">
+        <v>0</v>
+      </c>
+      <c r="G72" s="17">
+        <v>3</v>
+      </c>
       <c r="H72" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="I72" s="24">
         <v>69</v>
@@ -11342,15 +11469,27 @@
       <c r="A73" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="17"/>
+      <c r="B73" s="17">
+        <v>0</v>
+      </c>
+      <c r="C73" s="17">
+        <v>0</v>
+      </c>
+      <c r="D73" s="17">
+        <v>5</v>
+      </c>
+      <c r="E73" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="F73" s="17">
+        <v>0</v>
+      </c>
+      <c r="G73" s="17">
+        <v>1</v>
+      </c>
       <c r="H73" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="I73" s="24">
         <v>70</v>
@@ -11363,15 +11502,27 @@
       <c r="A74" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
+      <c r="B74" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="C74" s="15">
+        <v>0</v>
+      </c>
+      <c r="D74" s="15">
+        <v>10</v>
+      </c>
+      <c r="E74" s="15">
+        <v>1</v>
+      </c>
+      <c r="F74" s="15">
+        <v>0</v>
+      </c>
+      <c r="G74" s="15">
+        <v>2</v>
+      </c>
       <c r="H74" s="1">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="I74" s="24">
         <v>71</v>
@@ -11383,17 +11534,29 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="19">
         <f>SUM(H67:H73)</f>
-        <v>51</v>
-      </c>
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
+        <v>84</v>
+      </c>
+      <c r="B75" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="C75" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D75" s="15">
+        <v>9</v>
+      </c>
+      <c r="E75" s="15">
+        <v>5</v>
+      </c>
+      <c r="F75" s="15">
+        <v>0</v>
+      </c>
+      <c r="G75" s="15">
+        <v>0.5</v>
+      </c>
       <c r="H75" s="1">
         <f t="shared" ref="H75:H80" si="7">SUM(B75:G75)</f>
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="I75" s="24">
         <v>72</v>
@@ -11406,12 +11569,14 @@
       <c r="B76" s="15"/>
       <c r="C76" s="15"/>
       <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
+      <c r="E76" s="15">
+        <v>3.5</v>
+      </c>
       <c r="F76" s="15"/>
       <c r="G76" s="15"/>
       <c r="H76" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I76" s="24">
         <v>73</v>
@@ -11522,7 +11687,7 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="14">
         <f>SUM(H74:H80)</f>
-        <v>0</v>
+        <v>32.5</v>
       </c>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37ECBB6-203D-4A18-83C1-4465238DF366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8A02D5-B9DD-4D3B-A30E-1671B59B79C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>117</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>268.5</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>139</c:v>
+                  <c:v>139.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>172</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1487,10 +1487,10 @@
                   <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.5</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>0</c:v>
@@ -2227,10 +2227,10 @@
                   <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.5</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>117</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>56</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>268.5</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>139</c:v>
+                  <c:v>139.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>172</c:v>
+                  <c:v>178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4256,6 +4256,12 @@
                 <c:pt idx="71">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="72">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4540,6 +4546,12 @@
                 <c:pt idx="71">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4824,6 +4836,12 @@
                 <c:pt idx="71">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="72">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5111,6 +5129,9 @@
                 <c:pt idx="72">
                   <c:v>3.5</c:v>
                 </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5395,6 +5416,12 @@
                 <c:pt idx="71">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5678,6 +5705,12 @@
                 </c:pt>
                 <c:pt idx="71">
                   <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9165,8 +9198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E77" sqref="E77"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9225,19 +9258,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>268.5</v>
+        <v>270</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>139</v>
+        <v>139.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -9245,11 +9278,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>755</v>
+        <v>779</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -11566,17 +11599,27 @@
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
+      <c r="B76" s="15">
+        <v>8</v>
+      </c>
+      <c r="C76" s="15">
+        <v>1</v>
+      </c>
+      <c r="D76" s="15">
+        <v>1</v>
+      </c>
       <c r="E76" s="15">
         <v>3.5</v>
       </c>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
+      <c r="F76" s="15">
+        <v>0</v>
+      </c>
+      <c r="G76" s="15">
+        <v>2</v>
+      </c>
       <c r="H76" s="1">
         <f t="shared" si="7"/>
-        <v>3.5</v>
+        <v>15.5</v>
       </c>
       <c r="I76" s="24">
         <v>73</v>
@@ -11586,15 +11629,27 @@
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
+      <c r="B77" s="15">
+        <v>6</v>
+      </c>
+      <c r="C77" s="15">
+        <v>1</v>
+      </c>
+      <c r="D77" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="E77" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="F77" s="15">
+        <v>0</v>
+      </c>
+      <c r="G77" s="15">
+        <v>4</v>
+      </c>
       <c r="H77" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I77" s="24">
         <v>74</v>
@@ -11687,7 +11742,7 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="14">
         <f>SUM(H74:H80)</f>
-        <v>32.5</v>
+        <v>56.5</v>
       </c>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A8A02D5-B9DD-4D3B-A30E-1671B59B79C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AB45F9-8517-4380-BE91-8EE109C7B38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>131</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>270</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>139.5</c:v>
+                  <c:v>141.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>178</c:v>
+                  <c:v>179.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1490,13 +1490,13 @@
                   <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>0</c:v>
@@ -2230,13 +2230,13 @@
                   <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>131</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>270</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>139.5</c:v>
+                  <c:v>141.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>178</c:v>
+                  <c:v>179.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4260,7 +4260,13 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6</c:v>
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4552,6 +4558,12 @@
                 <c:pt idx="73">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="74">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4842,6 +4854,12 @@
                 <c:pt idx="73">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="74">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5132,6 +5150,12 @@
                 <c:pt idx="73">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5422,6 +5446,15 @@
                 <c:pt idx="73">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5711,6 +5744,12 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9198,8 +9237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9258,19 +9297,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>139.5</v>
+        <v>141.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -9278,11 +9317,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>178</v>
+        <v>179.5</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>779</v>
+        <v>798.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -9366,8 +9405,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H75)</f>
-        <v>10.4375</v>
+        <f>AVERAGE(H4:H78)</f>
+        <v>10.546666666666667</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -11630,7 +11669,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B77" s="15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C77" s="15">
         <v>1</v>
@@ -11649,7 +11688,7 @@
       </c>
       <c r="H77" s="1">
         <f t="shared" si="7"/>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="I77" s="24">
         <v>74</v>
@@ -11662,15 +11701,27 @@
       <c r="A78" t="s">
         <v>38</v>
       </c>
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
+      <c r="B78" s="15">
+        <v>3</v>
+      </c>
+      <c r="C78" s="15">
+        <v>3</v>
+      </c>
+      <c r="D78" s="15">
+        <v>2</v>
+      </c>
+      <c r="E78" s="15">
+        <v>1</v>
+      </c>
+      <c r="F78" s="15">
+        <v>0</v>
+      </c>
+      <c r="G78" s="15">
+        <v>1</v>
+      </c>
       <c r="H78" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I78" s="24">
         <v>75</v>
@@ -11680,15 +11731,27 @@
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
+      <c r="B79" s="15">
+        <v>1</v>
+      </c>
+      <c r="C79" s="15">
+        <v>4</v>
+      </c>
+      <c r="D79" s="15">
+        <v>1</v>
+      </c>
+      <c r="E79" s="15">
+        <v>1</v>
+      </c>
+      <c r="F79" s="15">
+        <v>0</v>
+      </c>
+      <c r="G79" s="15">
+        <v>0.5</v>
+      </c>
       <c r="H79" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="I79" s="24">
         <v>76</v>
@@ -11705,7 +11768,9 @@
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
       <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
+      <c r="F80" s="15">
+        <v>0</v>
+      </c>
       <c r="G80" s="15"/>
       <c r="H80" s="1">
         <f t="shared" si="7"/>
@@ -11742,7 +11807,7 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="14">
         <f>SUM(H74:H80)</f>
-        <v>56.5</v>
+        <v>76</v>
       </c>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AB45F9-8517-4380-BE91-8EE109C7B38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EED7AE-0C1E-4D32-BD3C-F73C8F6BBAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>137</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>65</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>273</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>141.5</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>179.5</c:v>
+                  <c:v>183.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1499,10 +1499,10 @@
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>0</c:v>
@@ -2239,10 +2239,10 @@
                   <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>137</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>65</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>273</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>141.5</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>179.5</c:v>
+                  <c:v>183.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4268,6 +4268,12 @@
                 <c:pt idx="75">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4564,6 +4570,12 @@
                 <c:pt idx="75">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="76">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4860,6 +4872,12 @@
                 <c:pt idx="75">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="76">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5156,6 +5174,12 @@
                 <c:pt idx="75">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5455,6 +5479,9 @@
                 <c:pt idx="76">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5750,6 +5777,12 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9238,7 +9271,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D80" sqref="D80"/>
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9297,19 +9330,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>141.5</v>
+        <v>146</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -9317,11 +9350,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>179.5</v>
+        <v>183.5</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>798.5</v>
+        <v>817</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -11764,17 +11797,27 @@
       <c r="A80" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
+      <c r="B80" s="15">
+        <v>1</v>
+      </c>
+      <c r="C80" s="15">
+        <v>2</v>
+      </c>
+      <c r="D80" s="15">
+        <v>3</v>
+      </c>
+      <c r="E80" s="15">
+        <v>1.5</v>
+      </c>
       <c r="F80" s="15">
         <v>0</v>
       </c>
-      <c r="G80" s="15"/>
+      <c r="G80" s="15">
+        <v>2</v>
+      </c>
       <c r="H80" s="1">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="I80" s="24">
         <v>77</v>
@@ -11787,15 +11830,27 @@
       <c r="A81" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
-      <c r="G81" s="17"/>
+      <c r="B81" s="17">
+        <v>2</v>
+      </c>
+      <c r="C81" s="17">
+        <v>1</v>
+      </c>
+      <c r="D81" s="17">
+        <v>1</v>
+      </c>
+      <c r="E81" s="17">
+        <v>3</v>
+      </c>
+      <c r="F81" s="17">
+        <v>0</v>
+      </c>
+      <c r="G81" s="17">
+        <v>2</v>
+      </c>
       <c r="H81" s="1">
         <f t="shared" ref="H81:H86" si="8">SUM(B81:G81)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I81" s="24">
         <v>78</v>
@@ -11807,7 +11862,7 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="14">
         <f>SUM(H74:H80)</f>
-        <v>76</v>
+        <v>85.5</v>
       </c>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
@@ -11946,7 +12001,7 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="19">
         <f>SUM(H81:H87)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EED7AE-0C1E-4D32-BD3C-F73C8F6BBAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75235DEB-3F3B-4905-8313-5789CD28174E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,13 +1021,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>140</c:v>
+                  <c:v>142.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>68</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>277</c:v>
+                  <c:v>278.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>146</c:v>
@@ -1036,7 +1036,7 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>183.5</c:v>
+                  <c:v>187.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1502,10 +1502,10 @@
                   <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>9</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>0</c:v>
@@ -2242,10 +2242,10 @@
                   <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>9</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>140</c:v>
+                  <c:v>142.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>68</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>277</c:v>
+                  <c:v>278.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>183.5</c:v>
+                  <c:v>187.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4272,7 +4272,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4576,6 +4579,9 @@
                 <c:pt idx="77">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="78">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4876,7 +4882,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5180,6 +5186,9 @@
                 <c:pt idx="77">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5482,6 +5491,9 @@
                 <c:pt idx="77">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5783,6 +5795,9 @@
                 </c:pt>
                 <c:pt idx="77">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9270,8 +9285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9330,15 +9345,15 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>140</v>
+        <v>142.5</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>277</v>
+        <v>278.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
@@ -9350,11 +9365,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>183.5</v>
+        <v>187.5</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>817</v>
+        <v>826</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -9438,8 +9453,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H78)</f>
-        <v>10.546666666666667</v>
+        <f>AVERAGE(H4:H81)</f>
+        <v>10.51923076923077</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -11831,13 +11846,13 @@
         <v>23</v>
       </c>
       <c r="B81" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C81" s="17">
         <v>1</v>
       </c>
       <c r="D81" s="17">
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="E81" s="17">
         <v>3</v>
@@ -11850,7 +11865,7 @@
       </c>
       <c r="H81" s="1">
         <f t="shared" ref="H81:H86" si="8">SUM(B81:G81)</f>
-        <v>9</v>
+        <v>12.5</v>
       </c>
       <c r="I81" s="24">
         <v>78</v>
@@ -11864,15 +11879,25 @@
         <f>SUM(H74:H80)</f>
         <v>85.5</v>
       </c>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
+      <c r="B82" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C82" s="17">
+        <v>1</v>
+      </c>
       <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
+      <c r="E82" s="17">
+        <v>0</v>
+      </c>
+      <c r="F82" s="17">
+        <v>0</v>
+      </c>
+      <c r="G82" s="17">
+        <v>4</v>
+      </c>
       <c r="H82" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I82" s="24">
         <v>79</v>
@@ -12001,7 +12026,7 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="19">
         <f>SUM(H81:H87)</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75235DEB-3F3B-4905-8313-5789CD28174E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D9C0DF-999A-4F7E-97D0-A588C99C1591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,16 +1021,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>142.5</c:v>
+                  <c:v>144.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>69</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>278.5</c:v>
+                  <c:v>283.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>146</c:v>
+                  <c:v>151.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5</c:v>
@@ -1505,13 +1505,13 @@
                   <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>0</c:v>
@@ -2245,13 +2245,13 @@
                   <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5.5</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0</c:v>
+                  <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="81">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>142.5</c:v>
+                  <c:v>144.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>69</c:v>
+                  <c:v>73</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>278.5</c:v>
+                  <c:v>283.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>146</c:v>
+                  <c:v>151.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4277,6 +4277,12 @@
                 <c:pt idx="78">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4582,6 +4588,12 @@
                 <c:pt idx="78">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4884,6 +4896,12 @@
                 <c:pt idx="77">
                   <c:v>2.5</c:v>
                 </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5187,7 +5205,10 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5494,6 +5515,12 @@
                 <c:pt idx="78">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5798,6 +5825,9 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9285,8 +9315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9345,19 +9375,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>142.5</v>
+        <v>144.5</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>278.5</v>
+        <v>283.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>146</v>
+        <v>151.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -9369,7 +9399,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>826</v>
+        <v>842.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -11885,9 +11915,11 @@
       <c r="C82" s="17">
         <v>1</v>
       </c>
-      <c r="D82" s="17"/>
+      <c r="D82" s="17">
+        <v>2.5</v>
+      </c>
       <c r="E82" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F82" s="17">
         <v>0</v>
@@ -11897,7 +11929,7 @@
       </c>
       <c r="H82" s="1">
         <f t="shared" si="8"/>
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="I82" s="24">
         <v>79</v>
@@ -11907,15 +11939,27 @@
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
+      <c r="B83" s="17">
+        <v>1</v>
+      </c>
+      <c r="C83" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="D83" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="E83" s="17">
+        <v>4.5</v>
+      </c>
+      <c r="F83" s="17">
+        <v>0</v>
+      </c>
+      <c r="G83" s="17">
+        <v>0</v>
+      </c>
       <c r="H83" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="I83" s="24">
         <v>80</v>
@@ -11925,15 +11969,21 @@
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
+      <c r="B84" s="17">
+        <v>1</v>
+      </c>
+      <c r="C84" s="17">
+        <v>2.5</v>
+      </c>
       <c r="D84" s="17"/>
       <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
+      <c r="F84" s="17">
+        <v>0</v>
+      </c>
       <c r="G84" s="17"/>
       <c r="H84" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="I84" s="24">
         <v>81</v>
@@ -12026,7 +12076,7 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="19">
         <f>SUM(H81:H87)</f>
-        <v>18</v>
+        <v>34.5</v>
       </c>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D9C0DF-999A-4F7E-97D0-A588C99C1591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F6079F-C3B2-4FF5-A90F-882F3CB2FE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>144.5</c:v>
+                  <c:v>146.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>73</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>283.5</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>151.5</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>187.5</c:v>
+                  <c:v>191.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1511,19 +1511,19 @@
                   <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>0</c:v>
@@ -2251,19 +2251,19 @@
                   <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.5</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>144.5</c:v>
+                  <c:v>146.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>73</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>283.5</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>151.5</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>187.5</c:v>
+                  <c:v>191.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4283,6 +4283,18 @@
                 <c:pt idx="80">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="81">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4592,7 +4604,19 @@
                   <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="80">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="81">
                   <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4902,6 +4926,21 @@
                 <c:pt idx="79">
                   <c:v>2.5</c:v>
                 </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5210,6 +5249,21 @@
                 <c:pt idx="79">
                   <c:v>4.5</c:v>
                 </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5521,6 +5575,18 @@
                 <c:pt idx="80">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5828,6 +5894,21 @@
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9315,8 +9396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9375,19 +9456,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>144.5</v>
+        <v>146.5</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>283.5</v>
+        <v>305</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>151.5</v>
+        <v>158</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -9395,11 +9476,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>187.5</v>
+        <v>191.5</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>842.5</v>
+        <v>887.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -9483,8 +9564,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H81)</f>
-        <v>10.51923076923077</v>
+        <f>AVERAGE(H4:H88)</f>
+        <v>10.441176470588236</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -11973,17 +12054,23 @@
         <v>1</v>
       </c>
       <c r="C84" s="17">
+        <v>5</v>
+      </c>
+      <c r="D84" s="17">
         <v>2.5</v>
       </c>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
+      <c r="E84" s="17">
+        <v>1.5</v>
+      </c>
       <c r="F84" s="17">
         <v>0</v>
       </c>
-      <c r="G84" s="17"/>
+      <c r="G84" s="17">
+        <v>2</v>
+      </c>
       <c r="H84" s="1">
         <f t="shared" si="8"/>
-        <v>3.5</v>
+        <v>12</v>
       </c>
       <c r="I84" s="24">
         <v>81</v>
@@ -11996,15 +12083,27 @@
       <c r="A85" t="s">
         <v>39</v>
       </c>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
+      <c r="B85" s="17">
+        <v>1</v>
+      </c>
+      <c r="C85" s="17">
+        <v>2.5</v>
+      </c>
+      <c r="D85" s="17">
+        <v>6</v>
+      </c>
+      <c r="E85" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="F85" s="17">
+        <v>0</v>
+      </c>
+      <c r="G85" s="17">
+        <v>0</v>
+      </c>
       <c r="H85" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I85" s="24">
         <v>82</v>
@@ -12014,15 +12113,27 @@
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
+      <c r="B86" s="17">
+        <v>0</v>
+      </c>
+      <c r="C86" s="17">
+        <v>0</v>
+      </c>
+      <c r="D86" s="17">
+        <v>4</v>
+      </c>
+      <c r="E86" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="F86" s="17">
+        <v>0</v>
+      </c>
+      <c r="G86" s="17">
+        <v>0</v>
+      </c>
       <c r="H86" s="1">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I86" s="24">
         <v>83</v>
@@ -12035,15 +12146,27 @@
       <c r="A87" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="17"/>
+      <c r="B87" s="17">
+        <v>0</v>
+      </c>
+      <c r="C87" s="17">
+        <v>1</v>
+      </c>
+      <c r="D87" s="17">
+        <v>4</v>
+      </c>
+      <c r="E87" s="17">
+        <v>1</v>
+      </c>
+      <c r="F87" s="17">
+        <v>0</v>
+      </c>
+      <c r="G87" s="17">
+        <v>0</v>
+      </c>
       <c r="H87" s="1">
         <f t="shared" ref="H87:H94" si="9">SUM(B87:G87)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I87" s="24">
         <v>84</v>
@@ -12056,15 +12179,27 @@
       <c r="A88" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
+      <c r="B88" s="15">
+        <v>1</v>
+      </c>
+      <c r="C88" s="15">
+        <v>5</v>
+      </c>
+      <c r="D88" s="15">
+        <v>5</v>
+      </c>
+      <c r="E88" s="15">
+        <v>1</v>
+      </c>
+      <c r="F88" s="15">
+        <v>0</v>
+      </c>
+      <c r="G88" s="15">
+        <v>2</v>
+      </c>
       <c r="H88" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I88" s="24">
         <v>85</v>
@@ -12076,7 +12211,7 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="19">
         <f>SUM(H81:H87)</f>
-        <v>34.5</v>
+        <v>65.5</v>
       </c>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
@@ -12215,7 +12350,7 @@
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
         <f>SUM(H88:H94)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F6079F-C3B2-4FF5-A90F-882F3CB2FE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD6D294-1596-4D17-A067-D5ED2B018622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -224,13 +224,13 @@
     <t>SE 492</t>
   </si>
   <si>
-    <t>SE 419</t>
-  </si>
-  <si>
     <t>KIN 158</t>
   </si>
   <si>
     <t>Class/Job Stuff</t>
+  </si>
+  <si>
+    <t>CPRE 419</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1003,7 @@
                   <c:v>SE 492</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>SE 419</c:v>
+                  <c:v>CPRE 419</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>KIN 158</c:v>
@@ -1021,16 +1021,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>146.5</c:v>
+                  <c:v>150.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>84</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>305</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>158</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5</c:v>
@@ -1526,7 +1526,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>0</c:v>
@@ -2266,7 +2266,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>146.5</c:v>
+                  <c:v>150.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>84</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>305</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3361,7 +3361,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SE 419</c:v>
+                  <c:v>CPRE 419</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>158</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4295,6 +4295,9 @@
                 <c:pt idx="84">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="85">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4618,6 +4621,9 @@
                 <c:pt idx="84">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="85">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4941,6 +4947,9 @@
                 <c:pt idx="84">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="85">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4959,7 +4968,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SE 419</c:v>
+                  <c:v>CPRE 419</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5264,6 +5273,9 @@
                 <c:pt idx="84">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="85">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5587,6 +5599,9 @@
                 <c:pt idx="84">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5909,6 +5924,9 @@
                 </c:pt>
                 <c:pt idx="84">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9396,8 +9414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9432,13 +9450,13 @@
         <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>4</v>
@@ -9456,19 +9474,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>146.5</v>
+        <v>150.5</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -9480,7 +9498,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>887.5</v>
+        <v>900.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -12213,15 +12231,27 @@
         <f>SUM(H81:H87)</f>
         <v>65.5</v>
       </c>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
+      <c r="B89" s="15">
+        <v>4</v>
+      </c>
+      <c r="C89" s="15">
+        <v>1</v>
+      </c>
+      <c r="D89" s="15">
+        <v>3</v>
+      </c>
+      <c r="E89" s="15">
+        <v>5</v>
+      </c>
+      <c r="F89" s="15">
+        <v>0</v>
+      </c>
+      <c r="G89" s="15">
+        <v>0</v>
+      </c>
       <c r="H89" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I89" s="24">
         <v>86</v>
@@ -12350,7 +12380,7 @@
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
         <f>SUM(H88:H94)</f>
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD6D294-1596-4D17-A067-D5ED2B018622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E4B9D3-22B2-4FAE-8A28-D1AAD0063EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>150.5</c:v>
+                  <c:v>154.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>308</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>163</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>191.5</c:v>
+                  <c:v>193.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1529,13 +1529,13 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>0</c:v>
@@ -2269,13 +2269,13 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="89">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>150.5</c:v>
+                  <c:v>154.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>85</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>308</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>163</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>191.5</c:v>
+                  <c:v>193.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4298,6 +4298,15 @@
                 <c:pt idx="85">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4624,6 +4633,12 @@
                 <c:pt idx="85">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4950,6 +4965,12 @@
                 <c:pt idx="85">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="86">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5276,6 +5297,15 @@
                 <c:pt idx="85">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="86">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5602,6 +5632,15 @@
                 <c:pt idx="85">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5926,6 +5965,15 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9414,8 +9462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9474,19 +9522,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>150.5</v>
+        <v>154.5</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -9494,11 +9542,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>191.5</v>
+        <v>193.5</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>900.5</v>
+        <v>921.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -12261,15 +12309,27 @@
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
+      <c r="B90" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="C90" s="15">
+        <v>0</v>
+      </c>
+      <c r="D90" s="15">
+        <v>4</v>
+      </c>
+      <c r="E90" s="15">
+        <v>2</v>
+      </c>
+      <c r="F90" s="15">
+        <v>0</v>
+      </c>
+      <c r="G90" s="15">
+        <v>2</v>
+      </c>
       <c r="H90" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="I90" s="24">
         <v>87</v>
@@ -12279,15 +12339,27 @@
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
+      <c r="B91" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="C91" s="15">
+        <v>2</v>
+      </c>
+      <c r="D91" s="15">
+        <v>4</v>
+      </c>
+      <c r="E91" s="15">
+        <v>2</v>
+      </c>
+      <c r="F91" s="15">
+        <v>0</v>
+      </c>
+      <c r="G91" s="15">
+        <v>0</v>
+      </c>
       <c r="H91" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="I91" s="24">
         <v>88</v>
@@ -12300,15 +12372,23 @@
       <c r="A92" t="s">
         <v>40</v>
       </c>
-      <c r="B92" s="15"/>
+      <c r="B92" s="15">
+        <v>1</v>
+      </c>
       <c r="C92" s="15"/>
       <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
+      <c r="E92" s="15">
+        <v>1</v>
+      </c>
+      <c r="F92" s="15">
+        <v>0</v>
+      </c>
+      <c r="G92" s="15">
+        <v>0</v>
+      </c>
       <c r="H92" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" s="24">
         <v>89</v>
@@ -12380,7 +12460,7 @@
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
         <f>SUM(H88:H94)</f>
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E4B9D3-22B2-4FAE-8A28-D1AAD0063EF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FF69A5-6224-4B39-AF38-09287B00E74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>154.5</c:v>
+                  <c:v>157.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>316</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>168</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>193.5</c:v>
+                  <c:v>199.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1529,22 +1529,22 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>0</c:v>
@@ -2269,22 +2269,22 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>154.5</c:v>
+                  <c:v>157.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>87</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>316</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>168</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>193.5</c:v>
+                  <c:v>199.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4307,6 +4307,12 @@
                 <c:pt idx="88">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="89">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4639,6 +4645,15 @@
                 <c:pt idx="87">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4971,6 +4986,15 @@
                 <c:pt idx="87">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="88">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5306,6 +5330,12 @@
                 <c:pt idx="88">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5641,6 +5671,15 @@
                 <c:pt idx="88">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5968,13 +6007,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9462,8 +9510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D95" sqref="D95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9522,19 +9570,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>154.5</v>
+        <v>157.5</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -9542,11 +9590,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>193.5</v>
+        <v>199.5</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>921.5</v>
+        <v>942.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -9630,8 +9678,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H88)</f>
-        <v>10.441176470588236</v>
+        <f>AVERAGE(H4:H94)</f>
+        <v>10.324175824175825</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -12325,11 +12373,11 @@
         <v>0</v>
       </c>
       <c r="G90" s="15">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="H90" s="1">
         <f t="shared" si="9"/>
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="I90" s="24">
         <v>87</v>
@@ -12355,11 +12403,11 @@
         <v>0</v>
       </c>
       <c r="G91" s="15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H91" s="1">
         <f t="shared" si="9"/>
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="I91" s="24">
         <v>88</v>
@@ -12375,8 +12423,12 @@
       <c r="B92" s="15">
         <v>1</v>
       </c>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
+      <c r="C92" s="15">
+        <v>1</v>
+      </c>
+      <c r="D92" s="15">
+        <v>4</v>
+      </c>
       <c r="E92" s="15">
         <v>1</v>
       </c>
@@ -12384,11 +12436,11 @@
         <v>0</v>
       </c>
       <c r="G92" s="15">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H92" s="1">
         <f t="shared" si="9"/>
-        <v>2</v>
+        <v>7.5</v>
       </c>
       <c r="I92" s="24">
         <v>89</v>
@@ -12398,15 +12450,27 @@
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
+      <c r="B93" s="15">
+        <v>2</v>
+      </c>
+      <c r="C93" s="15">
+        <v>0</v>
+      </c>
+      <c r="D93" s="15">
+        <v>2</v>
+      </c>
+      <c r="E93" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="F93" s="15">
+        <v>0</v>
+      </c>
+      <c r="G93" s="15">
+        <v>1.5</v>
+      </c>
       <c r="H93" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I93" s="24">
         <v>90</v>
@@ -12419,15 +12483,27 @@
       <c r="A94" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
+      <c r="B94" s="15">
+        <v>1</v>
+      </c>
+      <c r="C94" s="15">
+        <v>0</v>
+      </c>
+      <c r="D94" s="15">
+        <v>2</v>
+      </c>
+      <c r="E94" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="F94" s="15">
+        <v>0</v>
+      </c>
+      <c r="G94" s="15">
+        <v>0</v>
+      </c>
       <c r="H94" s="1">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="I94" s="24">
         <v>91</v>
@@ -12444,11 +12520,15 @@
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
       <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="17"/>
+      <c r="F95" s="17">
+        <v>0</v>
+      </c>
+      <c r="G95" s="17">
+        <v>3</v>
+      </c>
       <c r="H95" s="1">
         <f t="shared" ref="H95:H101" si="10">SUM(B95:G95)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I95" s="24">
         <v>92</v>
@@ -12460,7 +12540,7 @@
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="14">
         <f>SUM(H88:H94)</f>
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B96" s="17"/>
       <c r="C96" s="17"/>
@@ -12600,7 +12680,7 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="19">
         <f>SUM(H95:H101)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FF69A5-6224-4B39-AF38-09287B00E74D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D8D5DA-BBF6-4E28-9C2E-0A346ABD7F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,16 +1021,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>157.5</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>324</c:v>
+                  <c:v>330.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>171</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5</c:v>
@@ -1544,7 +1544,7 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>0</c:v>
@@ -2284,7 +2284,7 @@
                   <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>157.5</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>324</c:v>
+                  <c:v>330.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>171</c:v>
+                  <c:v>173</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4313,6 +4313,9 @@
                 <c:pt idx="90">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4654,6 +4657,9 @@
                 <c:pt idx="90">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4995,6 +5001,9 @@
                 <c:pt idx="90">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="91">
+                  <c:v>6.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5335,6 +5344,9 @@
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9510,8 +9522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D95" sqref="D95"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9570,7 +9582,7 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>157.5</v>
+        <v>158</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
@@ -9578,11 +9590,11 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>324</v>
+        <v>330.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -9594,7 +9606,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>942.5</v>
+        <v>951.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -9678,8 +9690,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H94)</f>
-        <v>10.324175824175825</v>
+        <f>AVERAGE(H4:H95)</f>
+        <v>10.342391304347826</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -12516,10 +12528,18 @@
       <c r="A95" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
+      <c r="B95" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C95" s="17">
+        <v>0</v>
+      </c>
+      <c r="D95" s="17">
+        <v>6.5</v>
+      </c>
+      <c r="E95" s="17">
+        <v>2</v>
+      </c>
       <c r="F95" s="17">
         <v>0</v>
       </c>
@@ -12528,7 +12548,7 @@
       </c>
       <c r="H95" s="1">
         <f t="shared" ref="H95:H101" si="10">SUM(B95:G95)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="I95" s="24">
         <v>92</v>
@@ -12680,7 +12700,7 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="19">
         <f>SUM(H95:H101)</f>
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D8D5DA-BBF6-4E28-9C2E-0A346ABD7F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B5E1EA-3B36-4730-994E-977D2FCC67B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>158</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>330.5</c:v>
+                  <c:v>337.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>173</c:v>
+                  <c:v>178.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>199.5</c:v>
+                  <c:v>203.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1547,10 +1547,10 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>0</c:v>
@@ -2287,10 +2287,10 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>158</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>88</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>330.5</c:v>
+                  <c:v>337.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>173</c:v>
+                  <c:v>178.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>199.5</c:v>
+                  <c:v>203.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4316,6 +4316,12 @@
                 <c:pt idx="91">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="92">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4660,6 +4666,12 @@
                 <c:pt idx="91">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5004,6 +5016,12 @@
                 <c:pt idx="91">
                   <c:v>6.5</c:v>
                 </c:pt>
+                <c:pt idx="92">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5348,6 +5366,12 @@
                 <c:pt idx="91">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5692,6 +5716,12 @@
                 <c:pt idx="91">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6035,6 +6065,12 @@
                 </c:pt>
                 <c:pt idx="91">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9522,8 +9558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9582,19 +9618,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>330.5</v>
+        <v>337.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>173</v>
+        <v>178.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -9602,11 +9638,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>199.5</v>
+        <v>203.5</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>951.5</v>
+        <v>974</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -12562,15 +12598,27 @@
         <f>SUM(H88:H94)</f>
         <v>66</v>
       </c>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
+      <c r="B96" s="17">
+        <v>3</v>
+      </c>
+      <c r="C96" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="D96" s="17">
+        <v>4</v>
+      </c>
+      <c r="E96" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F96" s="17">
+        <v>0</v>
+      </c>
+      <c r="G96" s="17">
+        <v>2</v>
+      </c>
       <c r="H96" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I96" s="24">
         <v>93</v>
@@ -12580,15 +12628,27 @@
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="17"/>
+      <c r="B97" s="17">
+        <v>2</v>
+      </c>
+      <c r="C97" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="D97" s="17">
+        <v>3</v>
+      </c>
+      <c r="E97" s="17">
+        <v>5</v>
+      </c>
+      <c r="F97" s="17">
+        <v>0</v>
+      </c>
+      <c r="G97" s="17">
+        <v>2</v>
+      </c>
       <c r="H97" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="I97" s="24">
         <v>94</v>
@@ -12700,7 +12760,7 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="19">
         <f>SUM(H95:H101)</f>
-        <v>12</v>
+        <v>34.5</v>
       </c>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B5E1EA-3B36-4730-994E-977D2FCC67B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A5648E-3F35-4589-9D68-E9E2B2FF4457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1024,13 +1024,13 @@
                   <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>337.5</c:v>
+                  <c:v>338.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>178.5</c:v>
+                  <c:v>179.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5</c:v>
@@ -1553,7 +1553,7 @@
                   <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>0</c:v>
@@ -2293,7 +2293,7 @@
                   <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>0</c:v>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>89</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>337.5</c:v>
+                  <c:v>338.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>178.5</c:v>
+                  <c:v>179.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4672,6 +4672,9 @@
                 <c:pt idx="93">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="94">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5022,6 +5025,9 @@
                 <c:pt idx="93">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5372,6 +5378,9 @@
                 <c:pt idx="93">
                   <c:v>5</c:v>
                 </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5720,6 +5729,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -9559,7 +9571,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D98" sqref="D98"/>
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9622,15 +9634,15 @@
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>337.5</v>
+        <v>338.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>178.5</v>
+        <v>179.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -9642,7 +9654,7 @@
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>974</v>
+        <v>978</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -12659,14 +12671,22 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
+      <c r="C98" s="17">
+        <v>2</v>
+      </c>
+      <c r="D98" s="17">
+        <v>1</v>
+      </c>
+      <c r="E98" s="17">
+        <v>1</v>
+      </c>
+      <c r="F98" s="17">
+        <v>0</v>
+      </c>
       <c r="G98" s="17"/>
       <c r="H98" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I98" s="24">
         <v>95</v>
@@ -12760,7 +12780,7 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="19">
         <f>SUM(H95:H101)</f>
-        <v>34.5</v>
+        <v>38.5</v>
       </c>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6A5648E-3F35-4589-9D68-E9E2B2FF4457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BFCDE2-A51D-4B3B-A580-A6A90B0CF425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>163</c:v>
+                  <c:v>163.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>338.5</c:v>
+                  <c:v>347.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>179.5</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>203.5</c:v>
+                  <c:v>204.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1553,7 +1553,7 @@
                   <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>0</c:v>
@@ -2293,7 +2293,7 @@
                   <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>163</c:v>
+                  <c:v>163.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>338.5</c:v>
+                  <c:v>347.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>179.5</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>203.5</c:v>
+                  <c:v>204.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4322,6 +4322,9 @@
                 <c:pt idx="93">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5026,7 +5029,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5379,7 +5382,7 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6083,6 +6086,9 @@
                 </c:pt>
                 <c:pt idx="93">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9570,8 +9576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9630,7 +9636,7 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>163</v>
+        <v>163.5</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
@@ -9638,11 +9644,11 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>338.5</v>
+        <v>347.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>179.5</v>
+        <v>180</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -9650,11 +9656,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>203.5</v>
+        <v>204.5</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>978</v>
+        <v>989</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -12670,23 +12676,27 @@
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B98" s="17"/>
+      <c r="B98" s="17">
+        <v>0.5</v>
+      </c>
       <c r="C98" s="17">
         <v>2</v>
       </c>
       <c r="D98" s="17">
+        <v>10</v>
+      </c>
+      <c r="E98" s="17">
+        <v>1.5</v>
+      </c>
+      <c r="F98" s="17">
+        <v>0</v>
+      </c>
+      <c r="G98" s="17">
         <v>1</v>
       </c>
-      <c r="E98" s="17">
-        <v>1</v>
-      </c>
-      <c r="F98" s="17">
-        <v>0</v>
-      </c>
-      <c r="G98" s="17"/>
       <c r="H98" s="1">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I98" s="24">
         <v>95</v>
@@ -12780,7 +12790,7 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="19">
         <f>SUM(H95:H101)</f>
-        <v>38.5</v>
+        <v>49.5</v>
       </c>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52BFCDE2-A51D-4B3B-A580-A6A90B0CF425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96794873-9CDB-41C2-B138-F2F27B676264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>163.5</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>347.5</c:v>
+                  <c:v>361.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>180</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>204.5</c:v>
+                  <c:v>209.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1556,16 +1556,16 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>0</c:v>
@@ -2296,16 +2296,16 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>0</c:v>
@@ -3089,7 +3089,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>163.5</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3215,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>91</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3341,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>347.5</c:v>
+                  <c:v>361.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3467,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>180</c:v>
+                  <c:v>182</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3719,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>204.5</c:v>
+                  <c:v>209.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4325,6 +4325,15 @@
                 <c:pt idx="94">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4678,6 +4687,18 @@
                 <c:pt idx="94">
                   <c:v>2</c:v>
                 </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5031,6 +5052,18 @@
                 <c:pt idx="94">
                   <c:v>10</c:v>
                 </c:pt>
+                <c:pt idx="95">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5384,6 +5417,15 @@
                 <c:pt idx="94">
                   <c:v>1.5</c:v>
                 </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5737,6 +5779,18 @@
                 <c:pt idx="94">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6089,6 +6143,18 @@
                 </c:pt>
                 <c:pt idx="94">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9576,8 +9642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E102" sqref="E102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9636,19 +9702,19 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>163.5</v>
+        <v>165</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>347.5</v>
+        <v>361.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -9656,11 +9722,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>204.5</v>
+        <v>209.5</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>989</v>
+        <v>1012.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -9744,8 +9810,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H95)</f>
-        <v>10.342391304347826</v>
+        <f>AVERAGE(H4:H102)</f>
+        <v>10.227272727272727</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -12709,15 +12775,27 @@
       <c r="A99" t="s">
         <v>41</v>
       </c>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
+      <c r="B99" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C99" s="17">
+        <v>0</v>
+      </c>
+      <c r="D99" s="17">
+        <v>2</v>
+      </c>
+      <c r="E99" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F99" s="17">
+        <v>0</v>
+      </c>
+      <c r="G99" s="17">
+        <v>1</v>
+      </c>
       <c r="H99" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I99" s="24">
         <v>96</v>
@@ -12728,15 +12806,27 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="30"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
+      <c r="B100" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C100" s="17">
+        <v>0</v>
+      </c>
+      <c r="D100" s="17">
+        <v>3</v>
+      </c>
+      <c r="E100" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F100" s="17">
+        <v>0</v>
+      </c>
+      <c r="G100" s="17">
+        <v>1</v>
+      </c>
       <c r="H100" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I100" s="24">
         <v>97</v>
@@ -12749,15 +12839,27 @@
       <c r="A101" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B101" s="17"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
+      <c r="B101" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C101" s="17">
+        <v>0</v>
+      </c>
+      <c r="D101" s="17">
+        <v>3</v>
+      </c>
+      <c r="E101" s="17">
+        <v>1</v>
+      </c>
+      <c r="F101" s="17">
+        <v>0</v>
+      </c>
+      <c r="G101" s="17">
+        <v>1</v>
+      </c>
       <c r="H101" s="1">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="I101" s="24">
         <v>98</v>
@@ -12771,14 +12873,22 @@
         <v>20</v>
       </c>
       <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
+      <c r="C102" s="15">
+        <v>1</v>
+      </c>
+      <c r="D102" s="15">
+        <v>6</v>
+      </c>
       <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
+      <c r="F102" s="15">
+        <v>0</v>
+      </c>
+      <c r="G102" s="15">
+        <v>2</v>
+      </c>
       <c r="H102" s="1">
         <f t="shared" ref="H102:H107" si="11">SUM(B102:G102)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I102" s="24">
         <v>99</v>
@@ -12790,7 +12900,7 @@
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="19">
         <f>SUM(H95:H101)</f>
-        <v>49.5</v>
+        <v>64</v>
       </c>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
@@ -12929,7 +13039,7 @@
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="14">
         <f>SUM(H102:H108)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96794873-9CDB-41C2-B138-F2F27B676264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF98268-5FD4-4046-95B8-7C96616B986F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1024,19 +1024,19 @@
                   <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>361.5</c:v>
+                  <c:v>398.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>182</c:v>
+                  <c:v>183.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>209.5</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1565,19 +1565,19 @@
                   <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>0</c:v>
@@ -2305,19 +2305,19 @@
                   <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="103">
                   <c:v>0</c:v>
@@ -2743,44 +2743,6 @@
             <c:idx val="0"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000001-520E-4935-B7EC-C9E109C9CDCA}"/>
@@ -2791,44 +2753,6 @@
             <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000003-520E-4935-B7EC-C9E109C9CDCA}"/>
@@ -2839,44 +2763,6 @@
             <c:idx val="2"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000005-520E-4935-B7EC-C9E109C9CDCA}"/>
@@ -2887,44 +2773,6 @@
             <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000007-520E-4935-B7EC-C9E109C9CDCA}"/>
@@ -2935,44 +2783,6 @@
             <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{00000009-520E-4935-B7EC-C9E109C9CDCA}"/>
@@ -2983,44 +2793,6 @@
             <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-            </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                 <c16:uniqueId val="{0000000B-520E-4935-B7EC-C9E109C9CDCA}"/>
@@ -3215,7 +2987,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>92</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3341,7 +3113,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>361.5</c:v>
+                  <c:v>398.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3467,7 +3239,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>182</c:v>
+                  <c:v>183.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3719,7 +3491,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>209.5</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4334,6 +4106,21 @@
                 <c:pt idx="97">
                   <c:v>0.5</c:v>
                 </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4699,6 +4486,18 @@
                 <c:pt idx="98">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5062,7 +4861,19 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6</c:v>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5426,6 +5237,21 @@
                 <c:pt idx="97">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5791,6 +5617,18 @@
                 <c:pt idx="98">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6155,6 +5993,15 @@
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9642,8 +9489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9706,15 +9553,15 @@
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>361.5</v>
+        <v>398.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>182</v>
+        <v>183.5</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -9722,11 +9569,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>209.5</v>
+        <v>215</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>1012.5</v>
+        <v>1059.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -9810,8 +9657,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H102)</f>
-        <v>10.227272727272727</v>
+        <f>AVERAGE(H4:H105)</f>
+        <v>10.338235294117647</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -12872,14 +12719,18 @@
       <c r="A102" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B102" s="15"/>
+      <c r="B102" s="15">
+        <v>0</v>
+      </c>
       <c r="C102" s="15">
         <v>1</v>
       </c>
       <c r="D102" s="15">
-        <v>6</v>
-      </c>
-      <c r="E102" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="E102" s="15">
+        <v>0.5</v>
+      </c>
       <c r="F102" s="15">
         <v>0</v>
       </c>
@@ -12888,7 +12739,7 @@
       </c>
       <c r="H102" s="1">
         <f t="shared" ref="H102:H107" si="11">SUM(B102:G102)</f>
-        <v>9</v>
+        <v>13.5</v>
       </c>
       <c r="I102" s="24">
         <v>99</v>
@@ -12902,15 +12753,27 @@
         <f>SUM(H95:H101)</f>
         <v>64</v>
       </c>
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
+      <c r="B103" s="15">
+        <v>0</v>
+      </c>
+      <c r="C103" s="15">
+        <v>1</v>
+      </c>
+      <c r="D103" s="15">
+        <v>10</v>
+      </c>
+      <c r="E103" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="F103" s="15">
+        <v>0</v>
+      </c>
+      <c r="G103" s="15">
+        <v>1</v>
+      </c>
       <c r="H103" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="I103" s="24">
         <v>100</v>
@@ -12920,15 +12783,27 @@
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="15"/>
+      <c r="B104" s="15">
+        <v>0</v>
+      </c>
+      <c r="C104" s="15">
+        <v>0</v>
+      </c>
+      <c r="D104" s="15">
+        <v>7</v>
+      </c>
+      <c r="E104" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="F104" s="15">
+        <v>0</v>
+      </c>
+      <c r="G104" s="15">
+        <v>4.5</v>
+      </c>
       <c r="H104" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="I104" s="24">
         <v>101</v>
@@ -12938,15 +12813,27 @@
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B105" s="15"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
+      <c r="B105" s="15">
+        <v>0</v>
+      </c>
+      <c r="C105" s="15">
+        <v>2</v>
+      </c>
+      <c r="D105" s="15">
+        <v>11</v>
+      </c>
+      <c r="E105" s="15">
+        <v>0</v>
+      </c>
+      <c r="F105" s="15">
+        <v>0</v>
+      </c>
+      <c r="G105" s="15">
+        <v>0</v>
+      </c>
       <c r="H105" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I105" s="24">
         <v>102</v>
@@ -12959,15 +12846,25 @@
       <c r="A106" t="s">
         <v>42</v>
       </c>
-      <c r="B106" s="15"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
+      <c r="B106" s="15">
+        <v>0</v>
+      </c>
+      <c r="C106" s="15">
+        <v>0</v>
+      </c>
+      <c r="D106" s="15">
+        <v>5</v>
+      </c>
+      <c r="E106" s="15">
+        <v>0</v>
+      </c>
+      <c r="F106" s="15">
+        <v>0</v>
+      </c>
       <c r="G106" s="15"/>
       <c r="H106" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I106" s="24">
         <v>103</v>
@@ -13039,7 +12936,7 @@
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="14">
         <f>SUM(H102:H108)</f>
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF98268-5FD4-4046-95B8-7C96616B986F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393BD867-22EF-45F4-BADC-57867DAEAE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1024,10 +1024,10 @@
                   <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>398.5</c:v>
+                  <c:v>411.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>183.5</c:v>
@@ -1036,7 +1036,7 @@
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>215</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1577,16 +1577,16 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>0</c:v>
@@ -2317,16 +2317,16 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>0</c:v>
@@ -2987,7 +2987,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>95</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3113,7 +3113,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>398.5</c:v>
+                  <c:v>411.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3491,7 +3491,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>215</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4121,6 +4121,12 @@
                 <c:pt idx="102">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4498,6 +4504,15 @@
                 <c:pt idx="102">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4873,7 +4888,13 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5252,6 +5273,12 @@
                 <c:pt idx="102">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5629,6 +5656,15 @@
                 <c:pt idx="102">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6002,6 +6038,18 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9490,7 +9538,7 @@
   <dimension ref="A1:AG122"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9553,11 +9601,11 @@
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>398.5</v>
+        <v>411.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
@@ -9569,11 +9617,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>1059.5</v>
+        <v>1075.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -12853,7 +12901,7 @@
         <v>0</v>
       </c>
       <c r="D106" s="15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E106" s="15">
         <v>0</v>
@@ -12861,10 +12909,12 @@
       <c r="F106" s="15">
         <v>0</v>
       </c>
-      <c r="G106" s="15"/>
+      <c r="G106" s="15">
+        <v>0</v>
+      </c>
       <c r="H106" s="1">
         <f t="shared" si="11"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I106" s="24">
         <v>103</v>
@@ -12874,15 +12924,27 @@
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
+      <c r="B107" s="15">
+        <v>0</v>
+      </c>
+      <c r="C107" s="15">
+        <v>0</v>
+      </c>
+      <c r="D107" s="15">
+        <v>4</v>
+      </c>
+      <c r="E107" s="15">
+        <v>0</v>
+      </c>
+      <c r="F107" s="15">
+        <v>0</v>
+      </c>
+      <c r="G107" s="15">
+        <v>0</v>
+      </c>
       <c r="H107" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I107" s="24">
         <v>104</v>
@@ -12895,15 +12957,27 @@
       <c r="A108" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B108" s="15"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
+      <c r="B108" s="15">
+        <v>0</v>
+      </c>
+      <c r="C108" s="15">
+        <v>0</v>
+      </c>
+      <c r="D108" s="15">
+        <v>4</v>
+      </c>
+      <c r="E108" s="15">
+        <v>0</v>
+      </c>
+      <c r="F108" s="15">
+        <v>0</v>
+      </c>
+      <c r="G108" s="15">
+        <v>0</v>
+      </c>
       <c r="H108" s="1">
         <f t="shared" ref="H108:H121" si="12">SUM(B108:G108)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I108" s="24">
         <v>105</v>
@@ -12917,14 +12991,20 @@
         <v>19</v>
       </c>
       <c r="B109" s="17"/>
-      <c r="C109" s="17"/>
+      <c r="C109" s="17">
+        <v>1</v>
+      </c>
       <c r="D109" s="17"/>
       <c r="E109" s="17"/>
-      <c r="F109" s="17"/>
-      <c r="G109" s="17"/>
+      <c r="F109" s="17">
+        <v>0</v>
+      </c>
+      <c r="G109" s="17">
+        <v>2</v>
+      </c>
       <c r="H109" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I109" s="24">
         <v>106</v>
@@ -12936,7 +13016,7 @@
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="14">
         <f>SUM(H102:H108)</f>
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
@@ -13073,7 +13153,7 @@
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="19">
         <f>SUM(H109:H115)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B117" s="18"/>
       <c r="C117" s="18"/>

--- a/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
+++ b/CollegeSemesterWork/TimeSpentWorkingSemester8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matt8\repo\mghoskins-Data\CollegeSemesterWork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393BD867-22EF-45F4-BADC-57867DAEAE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C4DDFC-F406-4DA1-8335-4F660114E9FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{82375D23-D698-41CA-AAE3-ABC009559D4F}"/>
   </bookViews>
@@ -1021,22 +1021,22 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>165</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>411.5</c:v>
+                  <c:v>444.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>183.5</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>217</c:v>
+                  <c:v>220.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1586,13 +1586,13 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>3</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>0</c:v>
@@ -2326,13 +2326,13 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>3</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0</c:v>
+                  <c:v>15.5</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="108">
                   <c:v>0</c:v>
@@ -2861,7 +2861,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>165</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3113,7 +3113,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>411.5</c:v>
+                  <c:v>444.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3239,7 +3239,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>183.5</c:v>
+                  <c:v>184</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3491,7 +3491,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>217</c:v>
+                  <c:v>220.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4127,6 +4127,15 @@
                 <c:pt idx="104">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4513,6 +4522,12 @@
                 <c:pt idx="105">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4896,6 +4911,15 @@
                 <c:pt idx="104">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="105">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>11</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5279,6 +5303,15 @@
                 <c:pt idx="104">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5665,6 +5698,12 @@
                 <c:pt idx="105">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6049,7 +6088,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9537,8 +9582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE33D67F-891D-4EAD-9F40-3D033E7F434D}">
   <dimension ref="A1:AG122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B109" sqref="B109"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9597,7 +9642,7 @@
       </c>
       <c r="B2" s="5">
         <f>SUM(B4:B166)</f>
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C2" s="6">
         <f>SUM(C4:C150)</f>
@@ -9605,11 +9650,11 @@
       </c>
       <c r="D2" s="7">
         <f>SUM(D4:D150)</f>
-        <v>411.5</v>
+        <v>444.5</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(E4:E150)</f>
-        <v>183.5</v>
+        <v>184</v>
       </c>
       <c r="F2" s="9">
         <f>SUM(F4:F150)</f>
@@ -9617,11 +9662,11 @@
       </c>
       <c r="G2" s="4">
         <f>SUM(G4:G150)</f>
-        <v>217</v>
+        <v>220.5</v>
       </c>
       <c r="H2" s="3">
         <f>SUM(B2:G2)</f>
-        <v>1075.5</v>
+        <v>1113.5</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="28"/>
@@ -9705,8 +9750,8 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="21">
-        <f>AVERAGE(H4:H105)</f>
-        <v>10.338235294117647</v>
+        <f>AVERAGE(H4:H111)</f>
+        <v>10.310185185185185</v>
       </c>
       <c r="B6" s="15">
         <v>0</v>
@@ -12990,21 +13035,27 @@
       <c r="A109" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B109" s="17"/>
+      <c r="B109" s="17">
+        <v>0</v>
+      </c>
       <c r="C109" s="17">
         <v>1</v>
       </c>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
+      <c r="D109" s="17">
+        <v>8</v>
+      </c>
+      <c r="E109" s="17">
+        <v>0</v>
+      </c>
       <c r="F109" s="17">
         <v>0</v>
       </c>
       <c r="G109" s="17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H109" s="1">
         <f t="shared" si="12"/>
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I109" s="24">
         <v>106</v>
@@ -13018,15 +13069,27 @@
         <f>SUM(H102:H108)</f>
         <v>69</v>
       </c>
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
+      <c r="B110" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C110" s="17">
+        <v>0</v>
+      </c>
+      <c r="D110" s="17">
+        <v>14</v>
+      </c>
+      <c r="E110" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="F110" s="17">
+        <v>0</v>
+      </c>
+      <c r="G110" s="17">
+        <v>0.5</v>
+      </c>
       <c r="H110" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="I110" s="24">
         <v>107</v>
@@ -13036,15 +13099,27 @@
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
-      <c r="G111" s="17"/>
+      <c r="B111" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C111" s="17">
+        <v>0</v>
+      </c>
+      <c r="D111" s="17">
+        <v>11</v>
+      </c>
+      <c r="E111" s="17">
+        <v>0</v>
+      </c>
+      <c r="F111" s="17">
+        <v>0</v>
+      </c>
+      <c r="G111" s="17">
+        <v>1</v>
+      </c>
       <c r="H111" s="1">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="I111" s="24">
         <v>108</v>
@@ -13153,7 +13228,7 @@
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="19">
         <f>SUM(H109:H115)</f>
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="B117" s="18"/>
       <c r="C117" s="18"/>
